--- a/Entities used for prediction/BCIO_prediction_entities.xlsx
+++ b/Entities used for prediction/BCIO_prediction_entities.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,8 +601,10 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
@@ -922,8 +924,10 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="n">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
@@ -976,8 +980,10 @@
       <c r="R8" s="2" t="inlineStr"/>
       <c r="S8" s="2" t="inlineStr"/>
       <c r="T8" s="2" t="inlineStr"/>
-      <c r="U8" s="2" t="n">
-        <v>0</v>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V8" s="2" t="inlineStr"/>
       <c r="W8" s="2" t="inlineStr">
@@ -1038,8 +1044,10 @@
       <c r="R9" s="2" t="inlineStr"/>
       <c r="S9" s="2" t="inlineStr"/>
       <c r="T9" s="2" t="inlineStr"/>
-      <c r="U9" s="2" t="n">
-        <v>0</v>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V9" s="2" t="inlineStr"/>
       <c r="W9" s="2" t="inlineStr">
@@ -1100,8 +1108,10 @@
       <c r="R10" s="2" t="inlineStr"/>
       <c r="S10" s="2" t="inlineStr"/>
       <c r="T10" s="2" t="inlineStr"/>
-      <c r="U10" s="2" t="n">
-        <v>0</v>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V10" s="2" t="inlineStr"/>
       <c r="W10" s="2" t="inlineStr">
@@ -1162,8 +1172,10 @@
       <c r="R11" s="2" t="inlineStr"/>
       <c r="S11" s="2" t="inlineStr"/>
       <c r="T11" s="2" t="inlineStr"/>
-      <c r="U11" s="2" t="n">
-        <v>0</v>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V11" s="2" t="inlineStr"/>
       <c r="W11" s="2" t="inlineStr">
@@ -1224,8 +1236,10 @@
       <c r="R12" s="2" t="inlineStr"/>
       <c r="S12" s="2" t="inlineStr"/>
       <c r="T12" s="2" t="inlineStr"/>
-      <c r="U12" s="2" t="n">
-        <v>0</v>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V12" s="2" t="inlineStr"/>
       <c r="W12" s="2" t="inlineStr">
@@ -1286,8 +1300,10 @@
       <c r="R13" s="2" t="inlineStr"/>
       <c r="S13" s="2" t="inlineStr"/>
       <c r="T13" s="2" t="inlineStr"/>
-      <c r="U13" s="2" t="n">
-        <v>0</v>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V13" s="2" t="inlineStr"/>
       <c r="W13" s="2" t="inlineStr">
@@ -1348,8 +1364,10 @@
       <c r="R14" s="2" t="inlineStr"/>
       <c r="S14" s="2" t="inlineStr"/>
       <c r="T14" s="2" t="inlineStr"/>
-      <c r="U14" s="2" t="n">
-        <v>0</v>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V14" s="2" t="inlineStr"/>
       <c r="W14" s="2" t="inlineStr">
@@ -1410,8 +1428,10 @@
       <c r="R15" s="2" t="inlineStr"/>
       <c r="S15" s="2" t="inlineStr"/>
       <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="n">
-        <v>0</v>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V15" s="2" t="inlineStr"/>
       <c r="W15" s="2" t="inlineStr">
@@ -1430,32 +1450,28 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050248</t>
+          <t>BCIO:050240</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of bupropion</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a pharmacological support BCT.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is bupropion.</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>reported intervention content</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
+          <t>reported pharmacological support BCT</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr"/>
       <c r="I16" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -1472,9 +1488,7 @@
       <c r="R16" s="2" t="inlineStr"/>
       <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="U16" s="2" t="inlineStr"/>
       <c r="V16" s="2" t="inlineStr"/>
       <c r="W16" s="2" t="inlineStr">
         <is>
@@ -1492,32 +1506,28 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050249</t>
+          <t>BCIO:050241</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>reported problem solving BCT</t>
+          <t>reported offer of nicotine replacement therapy</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a problem solving BCT.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is nicotine replacement therapy.</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>reported intervention content</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
+          <t>reported pharmacological support BCT</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr"/>
       <c r="I17" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -1534,9 +1544,7 @@
       <c r="R17" s="2" t="inlineStr"/>
       <c r="S17" s="2" t="inlineStr"/>
       <c r="T17" s="2" t="inlineStr"/>
-      <c r="U17" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="U17" s="2" t="inlineStr"/>
       <c r="V17" s="2" t="inlineStr"/>
       <c r="W17" s="2" t="inlineStr">
         <is>
@@ -1554,32 +1562,28 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050250</t>
+          <t>BCIO:050242</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>reported reduce negative emotions BCT</t>
+          <t>reported offer of varenicline</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a reduce negative emotions BCT.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is varenicline.</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>reported intervention content</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
+          <t>reported pharmacological support BCT</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr"/>
       <c r="I18" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -1596,9 +1600,7 @@
       <c r="R18" s="2" t="inlineStr"/>
       <c r="S18" s="2" t="inlineStr"/>
       <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="U18" s="2" t="inlineStr"/>
       <c r="V18" s="2" t="inlineStr"/>
       <c r="W18" s="2" t="inlineStr">
         <is>
@@ -1616,18 +1618,18 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050251</t>
+          <t>BCIO:050248</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>reported self-monitoring of behaviour BCT</t>
+          <t>reported pharmacological support BCT</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a self-monitoring of behaviour BCT.</t>
+          <t>Reported information content that is about inclusion of a pharmacological support BCT.</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
@@ -1658,8 +1660,10 @@
       <c r="R19" s="2" t="inlineStr"/>
       <c r="S19" s="2" t="inlineStr"/>
       <c r="T19" s="2" t="inlineStr"/>
-      <c r="U19" s="2" t="n">
-        <v>0</v>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V19" s="2" t="inlineStr"/>
       <c r="W19" s="2" t="inlineStr">
@@ -1676,82 +1680,84 @@
       <c r="Z19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:050252</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>reported smoking cessation rate</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Reported percentage of people in a study or group within a study that have stopped smoking according to a set of criteria.</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>A data item that is a report by study investigators of the percentage of participants in a study or part of a study have tobacco use cessation as part of their history according to a set of criteria.</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr"/>
-      <c r="F20" s="4" t="inlineStr"/>
-      <c r="G20" s="4" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="H20" s="4" t="inlineStr"/>
-      <c r="I20" s="4" t="inlineStr"/>
-      <c r="J20" s="4" t="inlineStr"/>
-      <c r="K20" s="4" t="inlineStr"/>
-      <c r="L20" s="4" t="inlineStr"/>
-      <c r="M20" s="4" t="inlineStr"/>
-      <c r="N20" s="4" t="inlineStr"/>
-      <c r="O20" s="4" t="inlineStr"/>
-      <c r="P20" s="4" t="inlineStr"/>
-      <c r="Q20" s="4" t="inlineStr"/>
-      <c r="R20" s="4" t="inlineStr"/>
-      <c r="S20" s="4" t="inlineStr">
-        <is>
-          <t>This entity is for use when synthesising evidence from tobacco cessation studies. Note that it refers to what study investigators have reported, not what actually happened. This is because it is only the report that can be verified and different studies use different ways of assessing what happened, for example using biochemical verification or not, imputing missing values in different ways, defining the participant sample in different ways, and involving different numbers of attempts at contacting participants. Therefore, interpreting this figure normally requires additional information on how it was arrived at. This entity combines point-prevalence and continuous abstinence.</t>
-        </is>
-      </c>
-      <c r="T20" s="4" t="inlineStr"/>
-      <c r="U20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" s="4" t="inlineStr"/>
-      <c r="W20" s="4" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050249</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>reported problem solving BCT</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Reported information content that is about inclusion of a problem solving BCT.</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>reported intervention content</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>outcome prediction</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr"/>
+      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="R20" s="2" t="inlineStr"/>
+      <c r="S20" s="2" t="inlineStr"/>
+      <c r="T20" s="2" t="inlineStr"/>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr"/>
+      <c r="W20" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="X20" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y20" s="4" t="inlineStr"/>
-      <c r="Z20" s="4" t="inlineStr"/>
+      <c r="X20" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Y20" s="2" t="inlineStr"/>
+      <c r="Z20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050253</t>
+          <t>BCIO:050250</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>reported social support BCT</t>
+          <t>reported reduce negative emotions BCT</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a reported social support BCT.</t>
+          <t>Reported information content that is about inclusion of a reduce negative emotions BCT.</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
@@ -1782,8 +1788,10 @@
       <c r="R21" s="2" t="inlineStr"/>
       <c r="S21" s="2" t="inlineStr"/>
       <c r="T21" s="2" t="inlineStr"/>
-      <c r="U21" s="2" t="n">
-        <v>0</v>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V21" s="2" t="inlineStr"/>
       <c r="W21" s="2" t="inlineStr">
@@ -1800,226 +1808,222 @@
       <c r="Z21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050211</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>substance use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr"/>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="3" t="inlineStr"/>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="inlineStr"/>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t>Behaviour</t>
-        </is>
-      </c>
-      <c r="J22" s="3" t="inlineStr"/>
-      <c r="K22" s="3" t="inlineStr"/>
-      <c r="L22" s="3" t="inlineStr"/>
-      <c r="M22" s="3" t="inlineStr"/>
-      <c r="N22" s="3" t="inlineStr"/>
-      <c r="O22" s="3" t="inlineStr"/>
-      <c r="P22" s="3" t="inlineStr"/>
-      <c r="Q22" s="3" t="inlineStr"/>
-      <c r="R22" s="3" t="inlineStr"/>
-      <c r="S22" s="3" t="inlineStr"/>
-      <c r="T22" s="3" t="inlineStr"/>
-      <c r="U22" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V22" s="3" t="inlineStr"/>
-      <c r="W22" s="3" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050251</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>reported self-monitoring of behaviour BCT</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Reported information content that is about inclusion of a self-monitoring of behaviour BCT.</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>reported intervention content</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>outcome prediction</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr"/>
+      <c r="L22" s="2" t="inlineStr"/>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="inlineStr"/>
+      <c r="P22" s="2" t="inlineStr"/>
+      <c r="Q22" s="2" t="inlineStr"/>
+      <c r="R22" s="2" t="inlineStr"/>
+      <c r="S22" s="2" t="inlineStr"/>
+      <c r="T22" s="2" t="inlineStr"/>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr"/>
+      <c r="W22" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="X22" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Y22" s="3" t="inlineStr"/>
-      <c r="Z22" s="3" t="inlineStr"/>
+      <c r="X22" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Y22" s="2" t="inlineStr"/>
+      <c r="Z22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036104</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr"/>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr"/>
-      <c r="F23" s="3" t="inlineStr"/>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I23" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J23" s="3" t="inlineStr"/>
-      <c r="K23" s="3" t="inlineStr"/>
-      <c r="L23" s="3" t="inlineStr"/>
-      <c r="M23" s="3" t="inlineStr"/>
-      <c r="N23" s="3" t="inlineStr"/>
-      <c r="O23" s="3" t="inlineStr"/>
-      <c r="P23" s="3" t="inlineStr"/>
-      <c r="Q23" s="3" t="inlineStr"/>
-      <c r="R23" s="3" t="inlineStr"/>
-      <c r="S23" s="3" t="inlineStr"/>
-      <c r="T23" s="3" t="inlineStr"/>
-      <c r="U23" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V23" s="3" t="inlineStr"/>
-      <c r="W23" s="3" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X23" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Y23" s="3" t="inlineStr"/>
-      <c r="Z23" s="3" t="inlineStr"/>
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050252</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>reported smoking cessation rate</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Reported percentage of people in a study or group within a study that have stopped smoking according to a set of criteria.</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>A data item that is a report by study investigators of the percentage of participants in a study or part of a study have tobacco use cessation as part of their history according to a set of criteria.</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="inlineStr"/>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr"/>
+      <c r="I23" s="4" t="inlineStr"/>
+      <c r="J23" s="4" t="inlineStr"/>
+      <c r="K23" s="4" t="inlineStr"/>
+      <c r="L23" s="4" t="inlineStr"/>
+      <c r="M23" s="4" t="inlineStr"/>
+      <c r="N23" s="4" t="inlineStr"/>
+      <c r="O23" s="4" t="inlineStr"/>
+      <c r="P23" s="4" t="inlineStr"/>
+      <c r="Q23" s="4" t="inlineStr"/>
+      <c r="R23" s="4" t="inlineStr"/>
+      <c r="S23" s="4" t="inlineStr">
+        <is>
+          <t>This entity is for use when synthesising evidence from tobacco cessation studies. Note that it refers to what study investigators have reported, not what actually happened. This is because it is only the report that can be verified and different studies use different ways of assessing what happened, for example using biochemical verification or not, imputing missing values in different ways, defining the participant sample in different ways, and involving different numbers of attempts at contacting participants. Therefore, interpreting this figure normally requires additional information on how it was arrived at. This entity combines point-prevalence and continuous abstinence.</t>
+        </is>
+      </c>
+      <c r="T23" s="4" t="inlineStr"/>
+      <c r="U23" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V23" s="4" t="inlineStr"/>
+      <c r="W23" s="4" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X23" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y23" s="4" t="inlineStr"/>
+      <c r="Z23" s="4" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050214</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>tobacco smoking cessation</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="3" t="inlineStr"/>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I24" s="3" t="inlineStr">
-        <is>
-          <t>Behaviour</t>
-        </is>
-      </c>
-      <c r="J24" s="3" t="inlineStr"/>
-      <c r="K24" s="3" t="inlineStr"/>
-      <c r="L24" s="3" t="inlineStr"/>
-      <c r="M24" s="3" t="inlineStr"/>
-      <c r="N24" s="3" t="inlineStr"/>
-      <c r="O24" s="3" t="inlineStr"/>
-      <c r="P24" s="3" t="inlineStr"/>
-      <c r="Q24" s="3" t="inlineStr"/>
-      <c r="R24" s="3" t="inlineStr"/>
-      <c r="S24" s="3" t="inlineStr"/>
-      <c r="T24" s="3" t="inlineStr"/>
-      <c r="U24" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V24" s="3" t="inlineStr"/>
-      <c r="W24" s="3" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050253</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>reported social support BCT</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Reported information content that is about inclusion of a reported social support BCT.</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>reported intervention content</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>outcome prediction</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="inlineStr"/>
+      <c r="Q24" s="2" t="inlineStr"/>
+      <c r="R24" s="2" t="inlineStr"/>
+      <c r="S24" s="2" t="inlineStr"/>
+      <c r="T24" s="2" t="inlineStr"/>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr"/>
+      <c r="W24" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="X24" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Y24" s="3" t="inlineStr"/>
-      <c r="Z24" s="3" t="inlineStr"/>
+      <c r="X24" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Y24" s="2" t="inlineStr"/>
+      <c r="Z24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>substance use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr"/>
       <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>consumption behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr"/>
       <c r="I25" s="3" t="inlineStr">
         <is>
           <t>Behaviour</t>
@@ -2034,65 +2038,263 @@
       <c r="P25" s="3" t="inlineStr"/>
       <c r="Q25" s="3" t="inlineStr"/>
       <c r="R25" s="3" t="inlineStr"/>
-      <c r="S25" s="3" t="inlineStr">
+      <c r="S25" s="3" t="inlineStr"/>
+      <c r="T25" s="3" t="inlineStr"/>
+      <c r="U25" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V25" s="3" t="inlineStr"/>
+      <c r="W25" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X25" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Y25" s="3" t="inlineStr"/>
+      <c r="Z25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036104</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr"/>
+      <c r="F26" s="3" t="inlineStr"/>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr"/>
+      <c r="K26" s="3" t="inlineStr"/>
+      <c r="L26" s="3" t="inlineStr"/>
+      <c r="M26" s="3" t="inlineStr"/>
+      <c r="N26" s="3" t="inlineStr"/>
+      <c r="O26" s="3" t="inlineStr"/>
+      <c r="P26" s="3" t="inlineStr"/>
+      <c r="Q26" s="3" t="inlineStr"/>
+      <c r="R26" s="3" t="inlineStr"/>
+      <c r="S26" s="3" t="inlineStr"/>
+      <c r="T26" s="3" t="inlineStr"/>
+      <c r="U26" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V26" s="3" t="inlineStr"/>
+      <c r="W26" s="3" t="inlineStr">
+        <is>
+          <t>RW; JH</t>
+        </is>
+      </c>
+      <c r="X26" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Y26" s="3" t="inlineStr"/>
+      <c r="Z26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050214</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>tobacco smoking cessation</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr"/>
+      <c r="F27" s="3" t="inlineStr"/>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>Behaviour</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="inlineStr"/>
+      <c r="K27" s="3" t="inlineStr"/>
+      <c r="L27" s="3" t="inlineStr"/>
+      <c r="M27" s="3" t="inlineStr"/>
+      <c r="N27" s="3" t="inlineStr"/>
+      <c r="O27" s="3" t="inlineStr"/>
+      <c r="P27" s="3" t="inlineStr"/>
+      <c r="Q27" s="3" t="inlineStr"/>
+      <c r="R27" s="3" t="inlineStr"/>
+      <c r="S27" s="3" t="inlineStr"/>
+      <c r="T27" s="3" t="inlineStr"/>
+      <c r="U27" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V27" s="3" t="inlineStr"/>
+      <c r="W27" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X27" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Y27" s="3" t="inlineStr"/>
+      <c r="Z27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050208</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr"/>
+      <c r="F28" s="3" t="inlineStr"/>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>Behaviour</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="inlineStr"/>
+      <c r="K28" s="3" t="inlineStr"/>
+      <c r="L28" s="3" t="inlineStr"/>
+      <c r="M28" s="3" t="inlineStr"/>
+      <c r="N28" s="3" t="inlineStr"/>
+      <c r="O28" s="3" t="inlineStr"/>
+      <c r="P28" s="3" t="inlineStr"/>
+      <c r="Q28" s="3" t="inlineStr"/>
+      <c r="R28" s="3" t="inlineStr"/>
+      <c r="S28" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
 </t>
         </is>
       </c>
-      <c r="T25" s="3" t="inlineStr"/>
-      <c r="U25" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V25" s="3" t="inlineStr"/>
-      <c r="W25" s="3" t="inlineStr">
+      <c r="T28" s="3" t="inlineStr"/>
+      <c r="U28" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V28" s="3" t="inlineStr"/>
+      <c r="W28" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="X25" s="3" t="inlineStr">
+      <c r="X28" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y25" s="3" t="inlineStr"/>
-      <c r="Z25" s="3" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
+      <c r="Y28" s="3" t="inlineStr"/>
+      <c r="Z28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
         <is>
           <t>tobacco use cessation for at least 24 weeks</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Entities used for prediction/BCIO_prediction_entities.xlsx
+++ b/Entities used for prediction/BCIO_prediction_entities.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1488,7 +1482,9 @@
       <c r="R16" s="2" t="inlineStr"/>
       <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V16" s="2" t="inlineStr"/>
       <c r="W16" s="2" t="inlineStr">
         <is>
@@ -1544,7 +1540,9 @@
       <c r="R17" s="2" t="inlineStr"/>
       <c r="S17" s="2" t="inlineStr"/>
       <c r="T17" s="2" t="inlineStr"/>
-      <c r="U17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V17" s="2" t="inlineStr"/>
       <c r="W17" s="2" t="inlineStr">
         <is>
@@ -1600,7 +1598,9 @@
       <c r="R18" s="2" t="inlineStr"/>
       <c r="S18" s="2" t="inlineStr"/>
       <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V18" s="2" t="inlineStr"/>
       <c r="W18" s="2" t="inlineStr">
         <is>
@@ -1872,68 +1872,72 @@
       <c r="Z22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>BCIO:050252</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>reported smoking cessation rate</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Reported percentage of people in a study or group within a study that have stopped smoking according to a set of criteria.</t>
         </is>
       </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>A data item that is a report by study investigators of the percentage of participants in a study or part of a study have tobacco use cessation as part of their history according to a set of criteria.</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr"/>
-      <c r="F23" s="4" t="inlineStr"/>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="H23" s="4" t="inlineStr"/>
-      <c r="I23" s="4" t="inlineStr"/>
-      <c r="J23" s="4" t="inlineStr"/>
-      <c r="K23" s="4" t="inlineStr"/>
-      <c r="L23" s="4" t="inlineStr"/>
-      <c r="M23" s="4" t="inlineStr"/>
-      <c r="N23" s="4" t="inlineStr"/>
-      <c r="O23" s="4" t="inlineStr"/>
-      <c r="P23" s="4" t="inlineStr"/>
-      <c r="Q23" s="4" t="inlineStr"/>
-      <c r="R23" s="4" t="inlineStr"/>
-      <c r="S23" s="4" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>outcome prediction</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="inlineStr"/>
+      <c r="Q23" s="2" t="inlineStr"/>
+      <c r="R23" s="2" t="inlineStr"/>
+      <c r="S23" s="2" t="inlineStr">
         <is>
           <t>This entity is for use when synthesising evidence from tobacco cessation studies. Note that it refers to what study investigators have reported, not what actually happened. This is because it is only the report that can be verified and different studies use different ways of assessing what happened, for example using biochemical verification or not, imputing missing values in different ways, defining the participant sample in different ways, and involving different numbers of attempts at contacting participants. Therefore, interpreting this figure normally requires additional information on how it was arrived at. This entity combines point-prevalence and continuous abstinence.</t>
         </is>
       </c>
-      <c r="T23" s="4" t="inlineStr"/>
-      <c r="U23" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V23" s="4" t="inlineStr"/>
-      <c r="W23" s="4" t="inlineStr">
+      <c r="T23" s="2" t="inlineStr"/>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr"/>
+      <c r="W23" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="X23" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y23" s="4" t="inlineStr"/>
-      <c r="Z23" s="4" t="inlineStr"/>
+      <c r="X23" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Y23" s="2" t="inlineStr"/>
+      <c r="Z23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">

--- a/Entities used for prediction/BCIO_prediction_entities.xlsx
+++ b/Entities used for prediction/BCIO_prediction_entities.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1444,18 +1444,18 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050240</t>
+          <t>BCIO:050254</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>reported offer of bupropion</t>
+          <t>reported offer of a nicotine replacement product</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Reported pharmacological support BCT where the pharmacotherapy is bupropion.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is nicotine replacement therapy.</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr"/>
@@ -1502,18 +1502,18 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050241</t>
+          <t>BCIO:050240</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>reported offer of nicotine replacement therapy</t>
+          <t>reported offer of bupropion</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Reported pharmacological support BCT where the pharmacotherapy is nicotine replacement therapy.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is bupropion.</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr"/>
@@ -1560,25 +1560,25 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050242</t>
+          <t>BCIO:050255</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>reported offer of varenicline</t>
+          <t>reported offer of nicotine chewing gum</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Reported pharmacological support BCT where the pharmacotherapy is varenicline.</t>
+          <t>Reported offer of a nicotine product in which the product is nicotine chewing gum.</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of a nicotine replacement product</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr"/>
@@ -1598,9 +1598,7 @@
       <c r="R18" s="2" t="inlineStr"/>
       <c r="S18" s="2" t="inlineStr"/>
       <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="U18" s="2" t="inlineStr"/>
       <c r="V18" s="2" t="inlineStr"/>
       <c r="W18" s="2" t="inlineStr">
         <is>
@@ -1618,32 +1616,28 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050248</t>
+          <t>BCIO:050242</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of varenicline</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a pharmacological support BCT.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is varenicline.</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>reported intervention content</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
+          <t>reported pharmacological support BCT</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr"/>
       <c r="I19" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -1660,10 +1654,8 @@
       <c r="R19" s="2" t="inlineStr"/>
       <c r="S19" s="2" t="inlineStr"/>
       <c r="T19" s="2" t="inlineStr"/>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="U19" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="V19" s="2" t="inlineStr"/>
       <c r="W19" s="2" t="inlineStr">
@@ -1682,18 +1674,18 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050249</t>
+          <t>BCIO:050248</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>reported problem solving BCT</t>
+          <t>reported pharmacological support BCT</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a problem solving BCT.</t>
+          <t>Reported information content that is about inclusion of a pharmacological support BCT.</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
@@ -1746,18 +1738,18 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050250</t>
+          <t>BCIO:050249</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>reported reduce negative emotions BCT</t>
+          <t>reported problem solving BCT</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a reduce negative emotions BCT.</t>
+          <t>Reported information content that is about inclusion of a problem solving BCT.</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
@@ -1810,18 +1802,18 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050251</t>
+          <t>BCIO:050250</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>reported self-monitoring of behaviour BCT</t>
+          <t>reported reduce negative emotions BCT</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a self-monitoring of behaviour BCT.</t>
+          <t>Reported information content that is about inclusion of a reduce negative emotions BCT.</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
@@ -1874,32 +1866,32 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050252</t>
+          <t>BCIO:050251</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>reported smoking cessation rate</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>Reported percentage of people in a study or group within a study that have stopped smoking according to a set of criteria.</t>
-        </is>
-      </c>
+          <t>reported self-monitoring of behaviour BCT</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>A data item that is a report by study investigators of the percentage of participants in a study or part of a study have tobacco use cessation as part of their history according to a set of criteria.</t>
+          <t>Reported information content that is about inclusion of a self-monitoring of behaviour BCT.</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr"/>
+          <t>reported intervention content</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -1914,11 +1906,7 @@
       <c r="P23" s="2" t="inlineStr"/>
       <c r="Q23" s="2" t="inlineStr"/>
       <c r="R23" s="2" t="inlineStr"/>
-      <c r="S23" s="2" t="inlineStr">
-        <is>
-          <t>This entity is for use when synthesising evidence from tobacco cessation studies. Note that it refers to what study investigators have reported, not what actually happened. This is because it is only the report that can be verified and different studies use different ways of assessing what happened, for example using biochemical verification or not, imputing missing values in different ways, defining the participant sample in different ways, and involving different numbers of attempts at contacting participants. Therefore, interpreting this figure normally requires additional information on how it was arrived at. This entity combines point-prevalence and continuous abstinence.</t>
-        </is>
-      </c>
+      <c r="S23" s="2" t="inlineStr"/>
       <c r="T23" s="2" t="inlineStr"/>
       <c r="U23" s="2" t="inlineStr">
         <is>
@@ -1942,32 +1930,32 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050253</t>
+          <t>BCIO:050252</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>reported social support BCT</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr"/>
+          <t>reported smoking cessation rate</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Reported percentage of people in a study or group within a study that have stopped smoking according to a set of criteria.</t>
+        </is>
+      </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a reported social support BCT.</t>
+          <t>A data item that is a report by study investigators of the percentage of participants in a study or part of a study have tobacco use cessation as part of their history according to a set of criteria.</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>reported intervention content</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
       <c r="I24" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -1982,7 +1970,11 @@
       <c r="P24" s="2" t="inlineStr"/>
       <c r="Q24" s="2" t="inlineStr"/>
       <c r="R24" s="2" t="inlineStr"/>
-      <c r="S24" s="2" t="inlineStr"/>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>This entity is for use when synthesising evidence from tobacco cessation studies. Note that it refers to what study investigators have reported, not what actually happened. This is because it is only the report that can be verified and different studies use different ways of assessing what happened, for example using biochemical verification or not, imputing missing values in different ways, defining the participant sample in different ways, and involving different numbers of attempts at contacting participants. Therefore, interpreting this figure normally requires additional information on how it was arrived at. This entity combines point-prevalence and continuous abstinence.</t>
+        </is>
+      </c>
       <c r="T24" s="2" t="inlineStr"/>
       <c r="U24" s="2" t="inlineStr">
         <is>
@@ -2004,97 +1996,97 @@
       <c r="Z24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050211</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>substance use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr"/>
-      <c r="F25" s="3" t="inlineStr"/>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="inlineStr"/>
-      <c r="I25" s="3" t="inlineStr">
-        <is>
-          <t>Behaviour</t>
-        </is>
-      </c>
-      <c r="J25" s="3" t="inlineStr"/>
-      <c r="K25" s="3" t="inlineStr"/>
-      <c r="L25" s="3" t="inlineStr"/>
-      <c r="M25" s="3" t="inlineStr"/>
-      <c r="N25" s="3" t="inlineStr"/>
-      <c r="O25" s="3" t="inlineStr"/>
-      <c r="P25" s="3" t="inlineStr"/>
-      <c r="Q25" s="3" t="inlineStr"/>
-      <c r="R25" s="3" t="inlineStr"/>
-      <c r="S25" s="3" t="inlineStr"/>
-      <c r="T25" s="3" t="inlineStr"/>
-      <c r="U25" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V25" s="3" t="inlineStr"/>
-      <c r="W25" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="X25" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Y25" s="3" t="inlineStr"/>
-      <c r="Z25" s="3" t="inlineStr"/>
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050253</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>reported social support BCT</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>Reported information content that is about inclusion of a reported social support BCT.</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>reported intervention content</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>outcome prediction</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr"/>
+      <c r="Q25" s="2" t="inlineStr"/>
+      <c r="R25" s="2" t="inlineStr"/>
+      <c r="S25" s="2" t="inlineStr"/>
+      <c r="T25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr"/>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X25" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Y25" s="2" t="inlineStr"/>
+      <c r="Z25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>consumption behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr"/>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr"/>
@@ -2116,7 +2108,7 @@
       <c r="V26" s="3" t="inlineStr"/>
       <c r="W26" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X26" s="3" t="inlineStr">
@@ -2130,25 +2122,25 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050214</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H27" s="3" t="inlineStr">
@@ -2158,7 +2150,7 @@
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr"/>
@@ -2180,7 +2172,7 @@
       <c r="V27" s="3" t="inlineStr"/>
       <c r="W27" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X27" s="3" t="inlineStr">
@@ -2194,29 +2186,25 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:050214</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco smoking cessation</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr"/>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H28" s="3" t="inlineStr">
@@ -2238,67 +2226,135 @@
       <c r="P28" s="3" t="inlineStr"/>
       <c r="Q28" s="3" t="inlineStr"/>
       <c r="R28" s="3" t="inlineStr"/>
-      <c r="S28" s="3" t="inlineStr">
+      <c r="S28" s="3" t="inlineStr"/>
+      <c r="T28" s="3" t="inlineStr"/>
+      <c r="U28" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V28" s="3" t="inlineStr"/>
+      <c r="W28" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X28" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Y28" s="3" t="inlineStr"/>
+      <c r="Z28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050208</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr"/>
+      <c r="F29" s="3" t="inlineStr"/>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>Behaviour</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="inlineStr"/>
+      <c r="K29" s="3" t="inlineStr"/>
+      <c r="L29" s="3" t="inlineStr"/>
+      <c r="M29" s="3" t="inlineStr"/>
+      <c r="N29" s="3" t="inlineStr"/>
+      <c r="O29" s="3" t="inlineStr"/>
+      <c r="P29" s="3" t="inlineStr"/>
+      <c r="Q29" s="3" t="inlineStr"/>
+      <c r="R29" s="3" t="inlineStr"/>
+      <c r="S29" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
 </t>
         </is>
       </c>
-      <c r="T28" s="3" t="inlineStr"/>
-      <c r="U28" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V28" s="3" t="inlineStr"/>
-      <c r="W28" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="X28" s="3" t="inlineStr">
+      <c r="T29" s="3" t="inlineStr"/>
+      <c r="U29" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V29" s="3" t="inlineStr"/>
+      <c r="W29" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X29" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y28" s="3" t="inlineStr"/>
-      <c r="Z28" s="3" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
+      <c r="Y29" s="3" t="inlineStr"/>
+      <c r="Z29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
         <is>
           <t>tobacco use cessation for at least 24 weeks</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Entities used for prediction/BCIO_prediction_entities.xlsx
+++ b/Entities used for prediction/BCIO_prediction_entities.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1444,25 +1444,25 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050254</t>
+          <t>BCIO:050256</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine replacement product</t>
+          <t>reported offer of a nicotine inhalator</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Reported pharmacological support BCT where the pharmacotherapy is nicotine replacement therapy.</t>
+          <t>Reported offer of a nicotine replacement product in which the product is a nicotine inhalator.</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of a nicotine replacement product</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr"/>
@@ -1482,9 +1482,7 @@
       <c r="R16" s="2" t="inlineStr"/>
       <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="U16" s="2" t="inlineStr"/>
       <c r="V16" s="2" t="inlineStr"/>
       <c r="W16" s="2" t="inlineStr">
         <is>
@@ -1502,18 +1500,18 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050240</t>
+          <t>BCIO:050254</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>reported offer of bupropion</t>
+          <t>reported offer of a nicotine replacement product</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Reported pharmacological support BCT where the pharmacotherapy is bupropion.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is nicotine replacement therapy.</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr"/>
@@ -1540,8 +1538,10 @@
       <c r="R17" s="2" t="inlineStr"/>
       <c r="S17" s="2" t="inlineStr"/>
       <c r="T17" s="2" t="inlineStr"/>
-      <c r="U17" s="2" t="n">
-        <v>0</v>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V17" s="2" t="inlineStr"/>
       <c r="W17" s="2" t="inlineStr">
@@ -1560,25 +1560,25 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050255</t>
+          <t>BCIO:050240</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>reported offer of nicotine chewing gum</t>
+          <t>reported offer of bupropion</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Reported offer of a nicotine product in which the product is nicotine chewing gum.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is bupropion.</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine replacement product</t>
+          <t>reported pharmacological support BCT</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr"/>
@@ -1598,7 +1598,11 @@
       <c r="R18" s="2" t="inlineStr"/>
       <c r="S18" s="2" t="inlineStr"/>
       <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V18" s="2" t="inlineStr"/>
       <c r="W18" s="2" t="inlineStr">
         <is>
@@ -1616,25 +1620,25 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050242</t>
+          <t>BCIO:050255</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>reported offer of varenicline</t>
+          <t>reported offer of nicotine chewing gum</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Reported pharmacological support BCT where the pharmacotherapy is varenicline.</t>
+          <t>Reported offer of a nicotine product in which the product is nicotine chewing gum.</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of a nicotine replacement product</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr"/>
@@ -1674,32 +1678,28 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050248</t>
+          <t>BCIO:050242</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of varenicline</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a pharmacological support BCT.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is varenicline.</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>reported intervention content</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
+          <t>reported pharmacological support BCT</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -1738,18 +1738,18 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050249</t>
+          <t>BCIO:050248</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>reported problem solving BCT</t>
+          <t>reported pharmacological support BCT</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a problem solving BCT.</t>
+          <t>Reported information content that is about inclusion of a pharmacological support BCT.</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
@@ -1802,18 +1802,18 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050250</t>
+          <t>BCIO:050249</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>reported reduce negative emotions BCT</t>
+          <t>reported problem solving BCT</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a reduce negative emotions BCT.</t>
+          <t>Reported information content that is about inclusion of a problem solving BCT.</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
@@ -1866,18 +1866,18 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050251</t>
+          <t>BCIO:050250</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>reported self-monitoring of behaviour BCT</t>
+          <t>reported reduce negative emotions BCT</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a self-monitoring of behaviour BCT.</t>
+          <t>Reported information content that is about inclusion of a reduce negative emotions BCT.</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
@@ -1930,32 +1930,32 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050252</t>
+          <t>BCIO:050251</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>reported smoking cessation rate</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>Reported percentage of people in a study or group within a study that have stopped smoking according to a set of criteria.</t>
-        </is>
-      </c>
+          <t>reported self-monitoring of behaviour BCT</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr"/>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>A data item that is a report by study investigators of the percentage of participants in a study or part of a study have tobacco use cessation as part of their history according to a set of criteria.</t>
+          <t>Reported information content that is about inclusion of a self-monitoring of behaviour BCT.</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr"/>
+          <t>reported intervention content</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -1970,11 +1970,7 @@
       <c r="P24" s="2" t="inlineStr"/>
       <c r="Q24" s="2" t="inlineStr"/>
       <c r="R24" s="2" t="inlineStr"/>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t>This entity is for use when synthesising evidence from tobacco cessation studies. Note that it refers to what study investigators have reported, not what actually happened. This is because it is only the report that can be verified and different studies use different ways of assessing what happened, for example using biochemical verification or not, imputing missing values in different ways, defining the participant sample in different ways, and involving different numbers of attempts at contacting participants. Therefore, interpreting this figure normally requires additional information on how it was arrived at. This entity combines point-prevalence and continuous abstinence.</t>
-        </is>
-      </c>
+      <c r="S24" s="2" t="inlineStr"/>
       <c r="T24" s="2" t="inlineStr"/>
       <c r="U24" s="2" t="inlineStr">
         <is>
@@ -1998,32 +1994,32 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050253</t>
+          <t>BCIO:050252</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>reported social support BCT</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr"/>
+          <t>reported smoking cessation rate</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Reported percentage of people in a study or group within a study that have stopped smoking according to a set of criteria.</t>
+        </is>
+      </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a reported social support BCT.</t>
+          <t>A data item that is a report by study investigators of the percentage of participants in a study or part of a study have tobacco use cessation as part of their history according to a set of criteria.</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>reported intervention content</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr"/>
       <c r="I25" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -2038,7 +2034,11 @@
       <c r="P25" s="2" t="inlineStr"/>
       <c r="Q25" s="2" t="inlineStr"/>
       <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr"/>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>This entity is for use when synthesising evidence from tobacco cessation studies. Note that it refers to what study investigators have reported, not what actually happened. This is because it is only the report that can be verified and different studies use different ways of assessing what happened, for example using biochemical verification or not, imputing missing values in different ways, defining the participant sample in different ways, and involving different numbers of attempts at contacting participants. Therefore, interpreting this figure normally requires additional information on how it was arrived at. This entity combines point-prevalence and continuous abstinence.</t>
+        </is>
+      </c>
       <c r="T25" s="2" t="inlineStr"/>
       <c r="U25" s="2" t="inlineStr">
         <is>
@@ -2060,97 +2060,97 @@
       <c r="Z25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050211</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>substance use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr"/>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr"/>
-      <c r="F26" s="3" t="inlineStr"/>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="inlineStr"/>
-      <c r="I26" s="3" t="inlineStr">
-        <is>
-          <t>Behaviour</t>
-        </is>
-      </c>
-      <c r="J26" s="3" t="inlineStr"/>
-      <c r="K26" s="3" t="inlineStr"/>
-      <c r="L26" s="3" t="inlineStr"/>
-      <c r="M26" s="3" t="inlineStr"/>
-      <c r="N26" s="3" t="inlineStr"/>
-      <c r="O26" s="3" t="inlineStr"/>
-      <c r="P26" s="3" t="inlineStr"/>
-      <c r="Q26" s="3" t="inlineStr"/>
-      <c r="R26" s="3" t="inlineStr"/>
-      <c r="S26" s="3" t="inlineStr"/>
-      <c r="T26" s="3" t="inlineStr"/>
-      <c r="U26" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V26" s="3" t="inlineStr"/>
-      <c r="W26" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="X26" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Y26" s="3" t="inlineStr"/>
-      <c r="Z26" s="3" t="inlineStr"/>
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050253</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>reported social support BCT</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Reported information content that is about inclusion of a reported social support BCT.</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>reported intervention content</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>outcome prediction</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="inlineStr"/>
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr"/>
+      <c r="P26" s="2" t="inlineStr"/>
+      <c r="Q26" s="2" t="inlineStr"/>
+      <c r="R26" s="2" t="inlineStr"/>
+      <c r="S26" s="2" t="inlineStr"/>
+      <c r="T26" s="2" t="inlineStr"/>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr"/>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X26" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Y26" s="2" t="inlineStr"/>
+      <c r="Z26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H27" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>consumption behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="inlineStr"/>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr"/>
@@ -2172,7 +2172,7 @@
       <c r="V27" s="3" t="inlineStr"/>
       <c r="W27" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X27" s="3" t="inlineStr">
@@ -2186,25 +2186,25 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050214</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr"/>
       <c r="F28" s="3" t="inlineStr"/>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H28" s="3" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="V28" s="3" t="inlineStr"/>
       <c r="W28" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X28" s="3" t="inlineStr">
@@ -2250,29 +2250,25 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:050214</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco smoking cessation</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr"/>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H29" s="3" t="inlineStr">
@@ -2294,67 +2290,135 @@
       <c r="P29" s="3" t="inlineStr"/>
       <c r="Q29" s="3" t="inlineStr"/>
       <c r="R29" s="3" t="inlineStr"/>
-      <c r="S29" s="3" t="inlineStr">
+      <c r="S29" s="3" t="inlineStr"/>
+      <c r="T29" s="3" t="inlineStr"/>
+      <c r="U29" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V29" s="3" t="inlineStr"/>
+      <c r="W29" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X29" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Y29" s="3" t="inlineStr"/>
+      <c r="Z29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050208</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr"/>
+      <c r="F30" s="3" t="inlineStr"/>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>Behaviour</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr"/>
+      <c r="K30" s="3" t="inlineStr"/>
+      <c r="L30" s="3" t="inlineStr"/>
+      <c r="M30" s="3" t="inlineStr"/>
+      <c r="N30" s="3" t="inlineStr"/>
+      <c r="O30" s="3" t="inlineStr"/>
+      <c r="P30" s="3" t="inlineStr"/>
+      <c r="Q30" s="3" t="inlineStr"/>
+      <c r="R30" s="3" t="inlineStr"/>
+      <c r="S30" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
 </t>
         </is>
       </c>
-      <c r="T29" s="3" t="inlineStr"/>
-      <c r="U29" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V29" s="3" t="inlineStr"/>
-      <c r="W29" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="X29" s="3" t="inlineStr">
+      <c r="T30" s="3" t="inlineStr"/>
+      <c r="U30" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V30" s="3" t="inlineStr"/>
+      <c r="W30" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X30" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y29" s="3" t="inlineStr"/>
-      <c r="Z29" s="3" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
+      <c r="Y30" s="3" t="inlineStr"/>
+      <c r="Z30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
         <is>
           <t>tobacco use cessation for at least 24 weeks</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Entities used for prediction/BCIO_prediction_entities.xlsx
+++ b/Entities used for prediction/BCIO_prediction_entities.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1482,7 +1482,9 @@
       <c r="R16" s="2" t="inlineStr"/>
       <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V16" s="2" t="inlineStr"/>
       <c r="W16" s="2" t="inlineStr">
         <is>
@@ -1500,25 +1502,25 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050254</t>
+          <t>BCIO:050257</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine replacement product</t>
+          <t>reported offer of a nicotine lozenge</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Reported pharmacological support BCT where the pharmacotherapy is nicotine replacement therapy.</t>
+          <t>Reported offer of a nicotine replacement product in which the product is a nicotine lozenge.</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of a nicotine replacement product</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr"/>
@@ -1538,11 +1540,7 @@
       <c r="R17" s="2" t="inlineStr"/>
       <c r="S17" s="2" t="inlineStr"/>
       <c r="T17" s="2" t="inlineStr"/>
-      <c r="U17" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="U17" s="2" t="inlineStr"/>
       <c r="V17" s="2" t="inlineStr"/>
       <c r="W17" s="2" t="inlineStr">
         <is>
@@ -1560,18 +1558,18 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050240</t>
+          <t>BCIO:050254</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>reported offer of bupropion</t>
+          <t>reported offer of a nicotine replacement product</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Reported pharmacological support BCT where the pharmacotherapy is bupropion.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is nicotine replacement therapy.</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr"/>
@@ -1620,25 +1618,25 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050255</t>
+          <t>BCIO:050240</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>reported offer of nicotine chewing gum</t>
+          <t>reported offer of bupropion</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Reported offer of a nicotine product in which the product is nicotine chewing gum.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is bupropion.</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine replacement product</t>
+          <t>reported pharmacological support BCT</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr"/>
@@ -1658,8 +1656,10 @@
       <c r="R19" s="2" t="inlineStr"/>
       <c r="S19" s="2" t="inlineStr"/>
       <c r="T19" s="2" t="inlineStr"/>
-      <c r="U19" s="2" t="n">
-        <v>0</v>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V19" s="2" t="inlineStr"/>
       <c r="W19" s="2" t="inlineStr">
@@ -1678,25 +1678,25 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050242</t>
+          <t>BCIO:050255</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>reported offer of varenicline</t>
+          <t>reported offer of nicotine chewing gum</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Reported pharmacological support BCT where the pharmacotherapy is varenicline.</t>
+          <t>Reported offer of a nicotine product in which the product is nicotine chewing gum.</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of a nicotine replacement product</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr"/>
@@ -1738,32 +1738,28 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050248</t>
+          <t>BCIO:050258</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of nicotine transdermal patch</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a pharmacological support BCT.</t>
+          <t>Reported offer of a nicotine replacement product in which the product is a nicotine transdermal patch.</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>reported intervention content</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
+          <t>reported offer of a nicotine replacement product</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -1780,11 +1776,7 @@
       <c r="R21" s="2" t="inlineStr"/>
       <c r="S21" s="2" t="inlineStr"/>
       <c r="T21" s="2" t="inlineStr"/>
-      <c r="U21" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="U21" s="2" t="inlineStr"/>
       <c r="V21" s="2" t="inlineStr"/>
       <c r="W21" s="2" t="inlineStr">
         <is>
@@ -1802,32 +1794,28 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050249</t>
+          <t>BCIO:050242</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>reported problem solving BCT</t>
+          <t>reported offer of varenicline</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a problem solving BCT.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is varenicline.</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>reported intervention content</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
+          <t>reported pharmacological support BCT</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr"/>
       <c r="I22" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -1866,18 +1854,18 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050250</t>
+          <t>BCIO:050248</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>reported reduce negative emotions BCT</t>
+          <t>reported pharmacological support BCT</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a reduce negative emotions BCT.</t>
+          <t>Reported information content that is about inclusion of a pharmacological support BCT.</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
@@ -1930,18 +1918,18 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050251</t>
+          <t>BCIO:050249</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>reported self-monitoring of behaviour BCT</t>
+          <t>reported problem solving BCT</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a self-monitoring of behaviour BCT.</t>
+          <t>Reported information content that is about inclusion of a problem solving BCT.</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>
@@ -1994,32 +1982,32 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050252</t>
+          <t>BCIO:050250</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>reported smoking cessation rate</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>Reported percentage of people in a study or group within a study that have stopped smoking according to a set of criteria.</t>
-        </is>
-      </c>
+          <t>reported reduce negative emotions BCT</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr"/>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>A data item that is a report by study investigators of the percentage of participants in a study or part of a study have tobacco use cessation as part of their history according to a set of criteria.</t>
+          <t>Reported information content that is about inclusion of a reduce negative emotions BCT.</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr"/>
+          <t>reported intervention content</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -2034,11 +2022,7 @@
       <c r="P25" s="2" t="inlineStr"/>
       <c r="Q25" s="2" t="inlineStr"/>
       <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr">
-        <is>
-          <t>This entity is for use when synthesising evidence from tobacco cessation studies. Note that it refers to what study investigators have reported, not what actually happened. This is because it is only the report that can be verified and different studies use different ways of assessing what happened, for example using biochemical verification or not, imputing missing values in different ways, defining the participant sample in different ways, and involving different numbers of attempts at contacting participants. Therefore, interpreting this figure normally requires additional information on how it was arrived at. This entity combines point-prevalence and continuous abstinence.</t>
-        </is>
-      </c>
+      <c r="S25" s="2" t="inlineStr"/>
       <c r="T25" s="2" t="inlineStr"/>
       <c r="U25" s="2" t="inlineStr">
         <is>
@@ -2062,18 +2046,18 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050253</t>
+          <t>BCIO:050251</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>reported social support BCT</t>
+          <t>reported self-monitoring of behaviour BCT</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a reported social support BCT.</t>
+          <t>Reported information content that is about inclusion of a self-monitoring of behaviour BCT.</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
@@ -2124,158 +2108,162 @@
       <c r="Z26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050211</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>substance use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr"/>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr"/>
-      <c r="F27" s="3" t="inlineStr"/>
-      <c r="G27" s="3" t="inlineStr">
-        <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H27" s="3" t="inlineStr"/>
-      <c r="I27" s="3" t="inlineStr">
-        <is>
-          <t>Behaviour</t>
-        </is>
-      </c>
-      <c r="J27" s="3" t="inlineStr"/>
-      <c r="K27" s="3" t="inlineStr"/>
-      <c r="L27" s="3" t="inlineStr"/>
-      <c r="M27" s="3" t="inlineStr"/>
-      <c r="N27" s="3" t="inlineStr"/>
-      <c r="O27" s="3" t="inlineStr"/>
-      <c r="P27" s="3" t="inlineStr"/>
-      <c r="Q27" s="3" t="inlineStr"/>
-      <c r="R27" s="3" t="inlineStr"/>
-      <c r="S27" s="3" t="inlineStr"/>
-      <c r="T27" s="3" t="inlineStr"/>
-      <c r="U27" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V27" s="3" t="inlineStr"/>
-      <c r="W27" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="X27" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Y27" s="3" t="inlineStr"/>
-      <c r="Z27" s="3" t="inlineStr"/>
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050252</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>reported smoking cessation rate</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Reported percentage of people in a study or group within a study that have stopped smoking according to a set of criteria.</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is a report by study investigators of the percentage of participants in a study or part of a study have tobacco use cessation as part of their history according to a set of criteria.</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>outcome prediction</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr"/>
+      <c r="Q27" s="2" t="inlineStr"/>
+      <c r="R27" s="2" t="inlineStr"/>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>This entity is for use when synthesising evidence from tobacco cessation studies. Note that it refers to what study investigators have reported, not what actually happened. This is because it is only the report that can be verified and different studies use different ways of assessing what happened, for example using biochemical verification or not, imputing missing values in different ways, defining the participant sample in different ways, and involving different numbers of attempts at contacting participants. Therefore, interpreting this figure normally requires additional information on how it was arrived at. This entity combines point-prevalence and continuous abstinence.</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr"/>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X27" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Y27" s="2" t="inlineStr"/>
+      <c r="Z27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036104</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr"/>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr"/>
-      <c r="F28" s="3" t="inlineStr"/>
-      <c r="G28" s="3" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H28" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I28" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J28" s="3" t="inlineStr"/>
-      <c r="K28" s="3" t="inlineStr"/>
-      <c r="L28" s="3" t="inlineStr"/>
-      <c r="M28" s="3" t="inlineStr"/>
-      <c r="N28" s="3" t="inlineStr"/>
-      <c r="O28" s="3" t="inlineStr"/>
-      <c r="P28" s="3" t="inlineStr"/>
-      <c r="Q28" s="3" t="inlineStr"/>
-      <c r="R28" s="3" t="inlineStr"/>
-      <c r="S28" s="3" t="inlineStr"/>
-      <c r="T28" s="3" t="inlineStr"/>
-      <c r="U28" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V28" s="3" t="inlineStr"/>
-      <c r="W28" s="3" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X28" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Y28" s="3" t="inlineStr"/>
-      <c r="Z28" s="3" t="inlineStr"/>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050253</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>reported social support BCT</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Reported information content that is about inclusion of a reported social support BCT.</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>reported intervention content</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>outcome prediction</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr"/>
+      <c r="L28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="inlineStr"/>
+      <c r="Q28" s="2" t="inlineStr"/>
+      <c r="R28" s="2" t="inlineStr"/>
+      <c r="S28" s="2" t="inlineStr"/>
+      <c r="T28" s="2" t="inlineStr"/>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr"/>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X28" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Y28" s="2" t="inlineStr"/>
+      <c r="Z28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050214</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr"/>
       <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="H29" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>consumption behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr"/>
       <c r="I29" s="3" t="inlineStr">
         <is>
           <t>Behaviour</t>
@@ -2314,29 +2302,25 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco smoking behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr"/>
       <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H30" s="3" t="inlineStr">
@@ -2346,7 +2330,7 @@
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr"/>
@@ -2358,67 +2342,199 @@
       <c r="P30" s="3" t="inlineStr"/>
       <c r="Q30" s="3" t="inlineStr"/>
       <c r="R30" s="3" t="inlineStr"/>
-      <c r="S30" s="3" t="inlineStr">
+      <c r="S30" s="3" t="inlineStr"/>
+      <c r="T30" s="3" t="inlineStr"/>
+      <c r="U30" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V30" s="3" t="inlineStr"/>
+      <c r="W30" s="3" t="inlineStr">
+        <is>
+          <t>RW; JH</t>
+        </is>
+      </c>
+      <c r="X30" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Y30" s="3" t="inlineStr"/>
+      <c r="Z30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050214</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>tobacco smoking cessation</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr"/>
+      <c r="F31" s="3" t="inlineStr"/>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>Behaviour</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="inlineStr"/>
+      <c r="K31" s="3" t="inlineStr"/>
+      <c r="L31" s="3" t="inlineStr"/>
+      <c r="M31" s="3" t="inlineStr"/>
+      <c r="N31" s="3" t="inlineStr"/>
+      <c r="O31" s="3" t="inlineStr"/>
+      <c r="P31" s="3" t="inlineStr"/>
+      <c r="Q31" s="3" t="inlineStr"/>
+      <c r="R31" s="3" t="inlineStr"/>
+      <c r="S31" s="3" t="inlineStr"/>
+      <c r="T31" s="3" t="inlineStr"/>
+      <c r="U31" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V31" s="3" t="inlineStr"/>
+      <c r="W31" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X31" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Y31" s="3" t="inlineStr"/>
+      <c r="Z31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050208</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr"/>
+      <c r="F32" s="3" t="inlineStr"/>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>Behaviour</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="inlineStr"/>
+      <c r="K32" s="3" t="inlineStr"/>
+      <c r="L32" s="3" t="inlineStr"/>
+      <c r="M32" s="3" t="inlineStr"/>
+      <c r="N32" s="3" t="inlineStr"/>
+      <c r="O32" s="3" t="inlineStr"/>
+      <c r="P32" s="3" t="inlineStr"/>
+      <c r="Q32" s="3" t="inlineStr"/>
+      <c r="R32" s="3" t="inlineStr"/>
+      <c r="S32" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
 </t>
         </is>
       </c>
-      <c r="T30" s="3" t="inlineStr"/>
-      <c r="U30" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V30" s="3" t="inlineStr"/>
-      <c r="W30" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="X30" s="3" t="inlineStr">
+      <c r="T32" s="3" t="inlineStr"/>
+      <c r="U32" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V32" s="3" t="inlineStr"/>
+      <c r="W32" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X32" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y30" s="3" t="inlineStr"/>
-      <c r="Z30" s="3" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
+      <c r="Y32" s="3" t="inlineStr"/>
+      <c r="Z32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
         <is>
           <t>tobacco use cessation for at least 24 weeks</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Entities used for prediction/BCIO_prediction_entities.xlsx
+++ b/Entities used for prediction/BCIO_prediction_entities.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z33"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,120 +894,116 @@
       <c r="Z6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050259</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>outcome follow-up point</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>A data item that describes how long after the start of a follow-up period an outcome is assessed.</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>outcome prediction</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr"/>
+      <c r="L7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr"/>
+      <c r="P7" s="2" t="inlineStr"/>
+      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="inlineStr"/>
+      <c r="S7" s="2" t="inlineStr"/>
+      <c r="T7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr"/>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X7" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Y7" s="2" t="inlineStr"/>
+      <c r="Z7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
         <is>
           <t>process aggregate</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050240</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>reported action planning BCT</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Reported information content that is about inclusion of an action planning BCT.</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>reported intervention content</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>outcome prediction</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr"/>
-      <c r="R8" s="2" t="inlineStr"/>
-      <c r="S8" s="2" t="inlineStr"/>
-      <c r="T8" s="2" t="inlineStr"/>
-      <c r="U8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V8" s="2" t="inlineStr"/>
-      <c r="W8" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="X8" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Y8" s="2" t="inlineStr"/>
-      <c r="Z8" s="2" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050241</t>
+          <t>BCIO:050240</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>reported advise to change behavior BCT</t>
+          <t>reported action planning BCT</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of an advise to change behaviour BCT.</t>
+          <t>Reported information content that is about inclusion of an action planning BCT.</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr"/>
@@ -1060,18 +1056,18 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050242</t>
+          <t>BCIO:050241</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>reported feedback on behaviour BCT</t>
+          <t>reported advise to change behavior BCT</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a feedback on behaviour BCT.</t>
+          <t>Reported information content that is about inclusion of an advise to change behaviour BCT.</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr"/>
@@ -1124,18 +1120,18 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050243</t>
+          <t>BCIO:050242</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>reported goal setting BCT</t>
+          <t>reported feedback on behaviour BCT</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a goal setting BCT.</t>
+          <t>Reported information content that is about inclusion of a feedback on behaviour BCT.</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr"/>
@@ -1188,18 +1184,18 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050244</t>
+          <t>BCIO:050243</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>reported information about health consequences BCT</t>
+          <t>reported goal setting BCT</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of an information about health consequences BCT.</t>
+          <t>Reported information content that is about inclusion of a goal setting BCT.</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr"/>
@@ -1252,18 +1248,18 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050245</t>
+          <t>BCIO:050244</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>reported information about social and environmental consequences BCT</t>
+          <t>reported information about health consequences BCT</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of an information about social and environmental consequences BCT.</t>
+          <t>Reported information content that is about inclusion of an information about health consequences BCT.</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
@@ -1316,18 +1312,18 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050246</t>
+          <t>BCIO:050245</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>reported instruction on how to perform the behaviour BCT</t>
+          <t>reported information about social and environmental consequences BCT</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of an instruction on how to perform the behaviour BCT.</t>
+          <t>Reported information content that is about inclusion of an information about social and environmental consequences BCT.</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr"/>
@@ -1380,25 +1376,25 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050247</t>
+          <t>BCIO:050246</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>reported intervention content</t>
+          <t>reported instruction on how to perform the behaviour BCT</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about inclusion of intervention content in a study or study arm.</t>
+          <t>Reported information content that is about inclusion of an instruction on how to perform the behaviour BCT.</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>reported intervention content</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1444,28 +1440,32 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050256</t>
+          <t>BCIO:050247</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine inhalator</t>
+          <t>reported intervention content</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Reported offer of a nicotine replacement product in which the product is a nicotine inhalator.</t>
+          <t>A data item that is about inclusion of intervention content in a study or study arm.</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine replacement product</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr"/>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -1482,8 +1482,10 @@
       <c r="R16" s="2" t="inlineStr"/>
       <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="n">
-        <v>0</v>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V16" s="2" t="inlineStr"/>
       <c r="W16" s="2" t="inlineStr">
@@ -1502,18 +1504,18 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050257</t>
+          <t>BCIO:050256</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine lozenge</t>
+          <t>reported offer of a nicotine inhalator</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Reported offer of a nicotine replacement product in which the product is a nicotine lozenge.</t>
+          <t>Reported offer of a nicotine replacement product in which the product is a nicotine inhalator.</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr"/>
@@ -1540,7 +1542,11 @@
       <c r="R17" s="2" t="inlineStr"/>
       <c r="S17" s="2" t="inlineStr"/>
       <c r="T17" s="2" t="inlineStr"/>
-      <c r="U17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V17" s="2" t="inlineStr"/>
       <c r="W17" s="2" t="inlineStr">
         <is>
@@ -1558,25 +1564,25 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050254</t>
+          <t>BCIO:050257</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine replacement product</t>
+          <t>reported offer of a nicotine lozenge</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Reported pharmacological support BCT where the pharmacotherapy is nicotine replacement therapy.</t>
+          <t>Reported offer of a nicotine replacement product in which the product is a nicotine lozenge.</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of a nicotine replacement product</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr"/>
@@ -1596,10 +1602,8 @@
       <c r="R18" s="2" t="inlineStr"/>
       <c r="S18" s="2" t="inlineStr"/>
       <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="U18" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="V18" s="2" t="inlineStr"/>
       <c r="W18" s="2" t="inlineStr">
@@ -1618,18 +1622,18 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050240</t>
+          <t>BCIO:050254</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>reported offer of bupropion</t>
+          <t>reported offer of a nicotine replacement product</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Reported pharmacological support BCT where the pharmacotherapy is bupropion.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is nicotine replacement therapy.</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
@@ -1678,25 +1682,25 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050255</t>
+          <t>BCIO:050240</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>reported offer of nicotine chewing gum</t>
+          <t>reported offer of bupropion</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Reported offer of a nicotine product in which the product is nicotine chewing gum.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is bupropion.</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine replacement product</t>
+          <t>reported pharmacological support BCT</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr"/>
@@ -1738,18 +1742,18 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050258</t>
+          <t>BCIO:050255</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>reported offer of nicotine transdermal patch</t>
+          <t>reported offer of nicotine chewing gum</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Reported offer of a nicotine replacement product in which the product is a nicotine transdermal patch.</t>
+          <t>Reported offer of a nicotine product in which the product is nicotine chewing gum.</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
@@ -1776,7 +1780,11 @@
       <c r="R21" s="2" t="inlineStr"/>
       <c r="S21" s="2" t="inlineStr"/>
       <c r="T21" s="2" t="inlineStr"/>
-      <c r="U21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V21" s="2" t="inlineStr"/>
       <c r="W21" s="2" t="inlineStr">
         <is>
@@ -1794,25 +1802,25 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050242</t>
+          <t>BCIO:050260</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>reported offer of varenicline</t>
+          <t>reported offer of nicotine nasal spray</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Reported pharmacological support BCT where the pharmacotherapy is varenicline.</t>
+          <t>Reported offer of a nicotine replacement product in which the product is nicotine nasal spray.</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of a nicotine replacement product</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr"/>
@@ -1832,11 +1840,7 @@
       <c r="R22" s="2" t="inlineStr"/>
       <c r="S22" s="2" t="inlineStr"/>
       <c r="T22" s="2" t="inlineStr"/>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="U22" s="2" t="inlineStr"/>
       <c r="V22" s="2" t="inlineStr"/>
       <c r="W22" s="2" t="inlineStr">
         <is>
@@ -1854,32 +1858,28 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050248</t>
+          <t>BCIO:050258</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of nicotine transdermal patch</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a pharmacological support BCT.</t>
+          <t>Reported offer of a nicotine replacement product in which the product is a nicotine transdermal patch.</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>reported intervention content</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
+          <t>reported offer of a nicotine replacement product</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
       <c r="I23" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -1896,10 +1896,8 @@
       <c r="R23" s="2" t="inlineStr"/>
       <c r="S23" s="2" t="inlineStr"/>
       <c r="T23" s="2" t="inlineStr"/>
-      <c r="U23" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="U23" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="V23" s="2" t="inlineStr"/>
       <c r="W23" s="2" t="inlineStr">
@@ -1918,32 +1916,28 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050249</t>
+          <t>BCIO:050242</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>reported problem solving BCT</t>
+          <t>reported offer of varenicline</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a problem solving BCT.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is varenicline.</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>reported intervention content</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
+          <t>reported pharmacological support BCT</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
       <c r="I24" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -1982,18 +1976,18 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050250</t>
+          <t>BCIO:050248</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>reported reduce negative emotions BCT</t>
+          <t>reported pharmacological support BCT</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a reduce negative emotions BCT.</t>
+          <t>Reported information content that is about inclusion of a pharmacological support BCT.</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
@@ -2046,18 +2040,18 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050251</t>
+          <t>BCIO:050249</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>reported self-monitoring of behaviour BCT</t>
+          <t>reported problem solving BCT</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a self-monitoring of behaviour BCT.</t>
+          <t>Reported information content that is about inclusion of a problem solving BCT.</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
@@ -2110,32 +2104,32 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050252</t>
+          <t>BCIO:050250</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>reported smoking cessation rate</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>Reported percentage of people in a study or group within a study that have stopped smoking according to a set of criteria.</t>
-        </is>
-      </c>
+          <t>reported reduce negative emotions BCT</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr"/>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>A data item that is a report by study investigators of the percentage of participants in a study or part of a study have tobacco use cessation as part of their history according to a set of criteria.</t>
+          <t>Reported information content that is about inclusion of a reduce negative emotions BCT.</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr"/>
+          <t>reported intervention content</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -2150,11 +2144,7 @@
       <c r="P27" s="2" t="inlineStr"/>
       <c r="Q27" s="2" t="inlineStr"/>
       <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="inlineStr">
-        <is>
-          <t>This entity is for use when synthesising evidence from tobacco cessation studies. Note that it refers to what study investigators have reported, not what actually happened. This is because it is only the report that can be verified and different studies use different ways of assessing what happened, for example using biochemical verification or not, imputing missing values in different ways, defining the participant sample in different ways, and involving different numbers of attempts at contacting participants. Therefore, interpreting this figure normally requires additional information on how it was arrived at. This entity combines point-prevalence and continuous abstinence.</t>
-        </is>
-      </c>
+      <c r="S27" s="2" t="inlineStr"/>
       <c r="T27" s="2" t="inlineStr"/>
       <c r="U27" s="2" t="inlineStr">
         <is>
@@ -2178,18 +2168,18 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050253</t>
+          <t>BCIO:050251</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>reported social support BCT</t>
+          <t>reported self-monitoring of behaviour BCT</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a reported social support BCT.</t>
+          <t>Reported information content that is about inclusion of a self-monitoring of behaviour BCT.</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
@@ -2240,158 +2230,162 @@
       <c r="Z28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050211</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>substance use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr"/>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr"/>
-      <c r="F29" s="3" t="inlineStr"/>
-      <c r="G29" s="3" t="inlineStr">
-        <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H29" s="3" t="inlineStr"/>
-      <c r="I29" s="3" t="inlineStr">
-        <is>
-          <t>Behaviour</t>
-        </is>
-      </c>
-      <c r="J29" s="3" t="inlineStr"/>
-      <c r="K29" s="3" t="inlineStr"/>
-      <c r="L29" s="3" t="inlineStr"/>
-      <c r="M29" s="3" t="inlineStr"/>
-      <c r="N29" s="3" t="inlineStr"/>
-      <c r="O29" s="3" t="inlineStr"/>
-      <c r="P29" s="3" t="inlineStr"/>
-      <c r="Q29" s="3" t="inlineStr"/>
-      <c r="R29" s="3" t="inlineStr"/>
-      <c r="S29" s="3" t="inlineStr"/>
-      <c r="T29" s="3" t="inlineStr"/>
-      <c r="U29" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V29" s="3" t="inlineStr"/>
-      <c r="W29" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="X29" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Y29" s="3" t="inlineStr"/>
-      <c r="Z29" s="3" t="inlineStr"/>
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050252</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>reported smoking cessation rate</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Reported percentage of people in a study or group within a study that have stopped smoking according to a set of criteria.</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is a report by study investigators of the percentage of participants in a study or part of a study have tobacco use cessation as part of their history according to a set of criteria.</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>outcome prediction</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="inlineStr"/>
+      <c r="L29" s="2" t="inlineStr"/>
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="inlineStr"/>
+      <c r="P29" s="2" t="inlineStr"/>
+      <c r="Q29" s="2" t="inlineStr"/>
+      <c r="R29" s="2" t="inlineStr"/>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>This entity is for use when synthesising evidence from tobacco cessation studies. Note that it refers to what study investigators have reported, not what actually happened. This is because it is only the report that can be verified and different studies use different ways of assessing what happened, for example using biochemical verification or not, imputing missing values in different ways, defining the participant sample in different ways, and involving different numbers of attempts at contacting participants. Therefore, interpreting this figure normally requires additional information on how it was arrived at. This entity combines point-prevalence and continuous abstinence.</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr"/>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr"/>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X29" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Y29" s="2" t="inlineStr"/>
+      <c r="Z29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036104</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr"/>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="inlineStr"/>
-      <c r="F30" s="3" t="inlineStr"/>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H30" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I30" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J30" s="3" t="inlineStr"/>
-      <c r="K30" s="3" t="inlineStr"/>
-      <c r="L30" s="3" t="inlineStr"/>
-      <c r="M30" s="3" t="inlineStr"/>
-      <c r="N30" s="3" t="inlineStr"/>
-      <c r="O30" s="3" t="inlineStr"/>
-      <c r="P30" s="3" t="inlineStr"/>
-      <c r="Q30" s="3" t="inlineStr"/>
-      <c r="R30" s="3" t="inlineStr"/>
-      <c r="S30" s="3" t="inlineStr"/>
-      <c r="T30" s="3" t="inlineStr"/>
-      <c r="U30" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V30" s="3" t="inlineStr"/>
-      <c r="W30" s="3" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X30" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Y30" s="3" t="inlineStr"/>
-      <c r="Z30" s="3" t="inlineStr"/>
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050253</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>reported social support BCT</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Reported information content that is about inclusion of a reported social support BCT.</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>reported intervention content</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>outcome prediction</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr"/>
+      <c r="Q30" s="2" t="inlineStr"/>
+      <c r="R30" s="2" t="inlineStr"/>
+      <c r="S30" s="2" t="inlineStr"/>
+      <c r="T30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr"/>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X30" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Y30" s="2" t="inlineStr"/>
+      <c r="Z30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050214</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr"/>
       <c r="F31" s="3" t="inlineStr"/>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="H31" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>consumption behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr"/>
       <c r="I31" s="3" t="inlineStr">
         <is>
           <t>Behaviour</t>
@@ -2430,29 +2424,25 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco smoking behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr"/>
       <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H32" s="3" t="inlineStr">
@@ -2462,7 +2452,7 @@
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr"/>
@@ -2474,67 +2464,163 @@
       <c r="P32" s="3" t="inlineStr"/>
       <c r="Q32" s="3" t="inlineStr"/>
       <c r="R32" s="3" t="inlineStr"/>
-      <c r="S32" s="3" t="inlineStr">
+      <c r="S32" s="3" t="inlineStr"/>
+      <c r="T32" s="3" t="inlineStr"/>
+      <c r="U32" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V32" s="3" t="inlineStr"/>
+      <c r="W32" s="3" t="inlineStr">
+        <is>
+          <t>RW; JH</t>
+        </is>
+      </c>
+      <c r="X32" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Y32" s="3" t="inlineStr"/>
+      <c r="Z32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050214</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>tobacco smoking cessation</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr"/>
+      <c r="F33" s="3" t="inlineStr"/>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I33" s="3" t="inlineStr">
+        <is>
+          <t>Behaviour</t>
+        </is>
+      </c>
+      <c r="J33" s="3" t="inlineStr"/>
+      <c r="K33" s="3" t="inlineStr"/>
+      <c r="L33" s="3" t="inlineStr"/>
+      <c r="M33" s="3" t="inlineStr"/>
+      <c r="N33" s="3" t="inlineStr"/>
+      <c r="O33" s="3" t="inlineStr"/>
+      <c r="P33" s="3" t="inlineStr"/>
+      <c r="Q33" s="3" t="inlineStr"/>
+      <c r="R33" s="3" t="inlineStr"/>
+      <c r="S33" s="3" t="inlineStr"/>
+      <c r="T33" s="3" t="inlineStr"/>
+      <c r="U33" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V33" s="3" t="inlineStr"/>
+      <c r="W33" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X33" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Y33" s="3" t="inlineStr"/>
+      <c r="Z33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050208</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr"/>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>Behaviour</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="inlineStr"/>
+      <c r="K34" s="3" t="inlineStr"/>
+      <c r="L34" s="3" t="inlineStr"/>
+      <c r="M34" s="3" t="inlineStr"/>
+      <c r="N34" s="3" t="inlineStr"/>
+      <c r="O34" s="3" t="inlineStr"/>
+      <c r="P34" s="3" t="inlineStr"/>
+      <c r="Q34" s="3" t="inlineStr"/>
+      <c r="R34" s="3" t="inlineStr"/>
+      <c r="S34" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
 </t>
         </is>
       </c>
-      <c r="T32" s="3" t="inlineStr"/>
-      <c r="U32" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V32" s="3" t="inlineStr"/>
-      <c r="W32" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="X32" s="3" t="inlineStr">
+      <c r="T34" s="3" t="inlineStr"/>
+      <c r="U34" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V34" s="3" t="inlineStr"/>
+      <c r="W34" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X34" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y32" s="3" t="inlineStr"/>
-      <c r="Z32" s="3" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>tobacco use cessation for at least 24 weeks</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
+      <c r="Y34" s="3" t="inlineStr"/>
+      <c r="Z34" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Entities used for prediction/BCIO_prediction_entities.xlsx
+++ b/Entities used for prediction/BCIO_prediction_entities.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1120,25 +1120,25 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050242</t>
+          <t>BCIO:050259</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>reported feedback on behaviour BCT</t>
+          <t>reported face-to-face mode of delivery</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a feedback on behaviour BCT.</t>
+          <t>A reported intervention mode of delivery in which the mode is face-to-face mode of delivery</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>reported intervention content</t>
+          <t>reported intervention mode of delivery</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1162,11 +1162,7 @@
       <c r="R11" s="2" t="inlineStr"/>
       <c r="S11" s="2" t="inlineStr"/>
       <c r="T11" s="2" t="inlineStr"/>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="U11" s="2" t="inlineStr"/>
       <c r="V11" s="2" t="inlineStr"/>
       <c r="W11" s="2" t="inlineStr">
         <is>
@@ -1184,18 +1180,18 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050243</t>
+          <t>BCIO:050242</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>reported goal setting BCT</t>
+          <t>reported feedback on behaviour BCT</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a goal setting BCT.</t>
+          <t>Reported information content that is about inclusion of a feedback on behaviour BCT.</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr"/>
@@ -1248,18 +1244,18 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050244</t>
+          <t>BCIO:050243</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>reported information about health consequences BCT</t>
+          <t>reported goal setting BCT</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of an information about health consequences BCT.</t>
+          <t>Reported information content that is about inclusion of a goal setting BCT.</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
@@ -1312,18 +1308,18 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050245</t>
+          <t>BCIO:050244</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>reported information about social and environmental consequences BCT</t>
+          <t>reported information about health consequences BCT</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of an information about social and environmental consequences BCT.</t>
+          <t>Reported information content that is about inclusion of an information about health consequences BCT.</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr"/>
@@ -1376,18 +1372,18 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050246</t>
+          <t>BCIO:050245</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>reported instruction on how to perform the behaviour BCT</t>
+          <t>reported information about social and environmental consequences BCT</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of an instruction on how to perform the behaviour BCT.</t>
+          <t>Reported information content that is about inclusion of an information about social and environmental consequences BCT.</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr"/>
@@ -1440,25 +1436,25 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050247</t>
+          <t>BCIO:050246</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>reported intervention content</t>
+          <t>reported instruction on how to perform the behaviour BCT</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about inclusion of intervention content in a study or study arm.</t>
+          <t>Reported information content that is about inclusion of an instruction on how to perform the behaviour BCT.</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>reported intervention content</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1504,28 +1500,32 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050256</t>
+          <t>BCIO:050247</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine inhalator</t>
+          <t>reported intervention content</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Reported offer of a nicotine replacement product in which the product is a nicotine inhalator.</t>
+          <t>A data item that is about inclusion of intervention content in a study or study arm.</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine replacement product</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr"/>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -1564,28 +1564,32 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050257</t>
+          <t>BCIO:050260</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine lozenge</t>
+          <t>reported intervention mode of delivery</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Reported offer of a nicotine replacement product in which the product is a nicotine lozenge.</t>
+          <t>A data item that describes how an intervention was delivered.</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine replacement product</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr"/>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -1602,9 +1606,7 @@
       <c r="R18" s="2" t="inlineStr"/>
       <c r="S18" s="2" t="inlineStr"/>
       <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="U18" s="2" t="inlineStr"/>
       <c r="V18" s="2" t="inlineStr"/>
       <c r="W18" s="2" t="inlineStr">
         <is>
@@ -1622,25 +1624,25 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050254</t>
+          <t>BCIO:050256</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine replacement product</t>
+          <t>reported offer of a nicotine inhalator</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Reported pharmacological support BCT where the pharmacotherapy is nicotine replacement therapy.</t>
+          <t>Reported offer of a nicotine replacement product in which the product is a nicotine inhalator.</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of a nicotine replacement product</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr"/>
@@ -1682,25 +1684,25 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050240</t>
+          <t>BCIO:050257</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>reported offer of bupropion</t>
+          <t>reported offer of a nicotine lozenge</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Reported pharmacological support BCT where the pharmacotherapy is bupropion.</t>
+          <t>Reported offer of a nicotine replacement product in which the product is a nicotine lozenge.</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of a nicotine replacement product</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr"/>
@@ -1742,25 +1744,25 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050255</t>
+          <t>BCIO:050254</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>reported offer of nicotine chewing gum</t>
+          <t>reported offer of a nicotine replacement product</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Reported offer of a nicotine product in which the product is nicotine chewing gum.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is nicotine replacement therapy.</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine replacement product</t>
+          <t>reported pharmacological support BCT</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr"/>
@@ -1802,25 +1804,25 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050260</t>
+          <t>BCIO:050240</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>reported offer of nicotine nasal spray</t>
+          <t>reported offer of bupropion</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Reported offer of a nicotine replacement product in which the product is nicotine nasal spray.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is bupropion.</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine replacement product</t>
+          <t>reported pharmacological support BCT</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr"/>
@@ -1840,7 +1842,11 @@
       <c r="R22" s="2" t="inlineStr"/>
       <c r="S22" s="2" t="inlineStr"/>
       <c r="T22" s="2" t="inlineStr"/>
-      <c r="U22" s="2" t="inlineStr"/>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V22" s="2" t="inlineStr"/>
       <c r="W22" s="2" t="inlineStr">
         <is>
@@ -1858,18 +1864,18 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050258</t>
+          <t>BCIO:050255</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>reported offer of nicotine transdermal patch</t>
+          <t>reported offer of nicotine chewing gum</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Reported offer of a nicotine replacement product in which the product is a nicotine transdermal patch.</t>
+          <t>Reported offer of a nicotine product in which the product is nicotine chewing gum.</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
@@ -1896,8 +1902,10 @@
       <c r="R23" s="2" t="inlineStr"/>
       <c r="S23" s="2" t="inlineStr"/>
       <c r="T23" s="2" t="inlineStr"/>
-      <c r="U23" s="2" t="n">
-        <v>0</v>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V23" s="2" t="inlineStr"/>
       <c r="W23" s="2" t="inlineStr">
@@ -1916,25 +1924,25 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050242</t>
+          <t>BCIO:050260</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>reported offer of varenicline</t>
+          <t>reported offer of nicotine nasal spray</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Reported pharmacological support BCT where the pharmacotherapy is varenicline.</t>
+          <t>Reported offer of a nicotine replacement product in which the product is nicotine nasal spray.</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of a nicotine replacement product</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr"/>
@@ -1954,10 +1962,8 @@
       <c r="R24" s="2" t="inlineStr"/>
       <c r="S24" s="2" t="inlineStr"/>
       <c r="T24" s="2" t="inlineStr"/>
-      <c r="U24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="U24" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="V24" s="2" t="inlineStr"/>
       <c r="W24" s="2" t="inlineStr">
@@ -1976,32 +1982,28 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050248</t>
+          <t>BCIO:050258</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of nicotine transdermal patch</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a pharmacological support BCT.</t>
+          <t>Reported offer of a nicotine replacement product in which the product is a nicotine transdermal patch.</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>reported intervention content</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
+          <t>reported offer of a nicotine replacement product</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr"/>
       <c r="I25" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -2040,32 +2042,28 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050249</t>
+          <t>BCIO:050242</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>reported problem solving BCT</t>
+          <t>reported offer of varenicline</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a problem solving BCT.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is varenicline.</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>reported intervention content</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
+          <t>reported pharmacological support BCT</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr"/>
       <c r="I26" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -2104,18 +2102,18 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050250</t>
+          <t>BCIO:050248</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>reported reduce negative emotions BCT</t>
+          <t>reported pharmacological support BCT</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a reduce negative emotions BCT.</t>
+          <t>Reported information content that is about inclusion of a pharmacological support BCT.</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
@@ -2168,18 +2166,18 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050251</t>
+          <t>BCIO:050249</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>reported self-monitoring of behaviour BCT</t>
+          <t>reported problem solving BCT</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a self-monitoring of behaviour BCT.</t>
+          <t>Reported information content that is about inclusion of a problem solving BCT.</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
@@ -2232,32 +2230,32 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050252</t>
+          <t>BCIO:050250</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>reported smoking cessation rate</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>Reported percentage of people in a study or group within a study that have stopped smoking according to a set of criteria.</t>
-        </is>
-      </c>
+          <t>reported reduce negative emotions BCT</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr"/>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>A data item that is a report by study investigators of the percentage of participants in a study or part of a study have tobacco use cessation as part of their history according to a set of criteria.</t>
+          <t>Reported information content that is about inclusion of a reduce negative emotions BCT.</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr"/>
+          <t>reported intervention content</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -2272,11 +2270,7 @@
       <c r="P29" s="2" t="inlineStr"/>
       <c r="Q29" s="2" t="inlineStr"/>
       <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="inlineStr">
-        <is>
-          <t>This entity is for use when synthesising evidence from tobacco cessation studies. Note that it refers to what study investigators have reported, not what actually happened. This is because it is only the report that can be verified and different studies use different ways of assessing what happened, for example using biochemical verification or not, imputing missing values in different ways, defining the participant sample in different ways, and involving different numbers of attempts at contacting participants. Therefore, interpreting this figure normally requires additional information on how it was arrived at. This entity combines point-prevalence and continuous abstinence.</t>
-        </is>
-      </c>
+      <c r="S29" s="2" t="inlineStr"/>
       <c r="T29" s="2" t="inlineStr"/>
       <c r="U29" s="2" t="inlineStr">
         <is>
@@ -2300,18 +2294,18 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050253</t>
+          <t>BCIO:050251</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>reported social support BCT</t>
+          <t>reported self-monitoring of behaviour BCT</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a reported social support BCT.</t>
+          <t>Reported information content that is about inclusion of a self-monitoring of behaviour BCT.</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
@@ -2362,158 +2356,162 @@
       <c r="Z30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050211</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>substance use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr"/>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr"/>
-      <c r="F31" s="3" t="inlineStr"/>
-      <c r="G31" s="3" t="inlineStr">
-        <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H31" s="3" t="inlineStr"/>
-      <c r="I31" s="3" t="inlineStr">
-        <is>
-          <t>Behaviour</t>
-        </is>
-      </c>
-      <c r="J31" s="3" t="inlineStr"/>
-      <c r="K31" s="3" t="inlineStr"/>
-      <c r="L31" s="3" t="inlineStr"/>
-      <c r="M31" s="3" t="inlineStr"/>
-      <c r="N31" s="3" t="inlineStr"/>
-      <c r="O31" s="3" t="inlineStr"/>
-      <c r="P31" s="3" t="inlineStr"/>
-      <c r="Q31" s="3" t="inlineStr"/>
-      <c r="R31" s="3" t="inlineStr"/>
-      <c r="S31" s="3" t="inlineStr"/>
-      <c r="T31" s="3" t="inlineStr"/>
-      <c r="U31" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V31" s="3" t="inlineStr"/>
-      <c r="W31" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="X31" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Y31" s="3" t="inlineStr"/>
-      <c r="Z31" s="3" t="inlineStr"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050252</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>reported smoking cessation rate</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Reported percentage of people in a study or group within a study that have stopped smoking according to a set of criteria.</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is a report by study investigators of the percentage of participants in a study or part of a study have tobacco use cessation as part of their history according to a set of criteria.</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>outcome prediction</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr"/>
+      <c r="Q31" s="2" t="inlineStr"/>
+      <c r="R31" s="2" t="inlineStr"/>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>This entity is for use when synthesising evidence from tobacco cessation studies. Note that it refers to what study investigators have reported, not what actually happened. This is because it is only the report that can be verified and different studies use different ways of assessing what happened, for example using biochemical verification or not, imputing missing values in different ways, defining the participant sample in different ways, and involving different numbers of attempts at contacting participants. Therefore, interpreting this figure normally requires additional information on how it was arrived at. This entity combines point-prevalence and continuous abstinence.</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="inlineStr"/>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X31" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Y31" s="2" t="inlineStr"/>
+      <c r="Z31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036104</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr"/>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="inlineStr"/>
-      <c r="F32" s="3" t="inlineStr"/>
-      <c r="G32" s="3" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H32" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I32" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="J32" s="3" t="inlineStr"/>
-      <c r="K32" s="3" t="inlineStr"/>
-      <c r="L32" s="3" t="inlineStr"/>
-      <c r="M32" s="3" t="inlineStr"/>
-      <c r="N32" s="3" t="inlineStr"/>
-      <c r="O32" s="3" t="inlineStr"/>
-      <c r="P32" s="3" t="inlineStr"/>
-      <c r="Q32" s="3" t="inlineStr"/>
-      <c r="R32" s="3" t="inlineStr"/>
-      <c r="S32" s="3" t="inlineStr"/>
-      <c r="T32" s="3" t="inlineStr"/>
-      <c r="U32" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V32" s="3" t="inlineStr"/>
-      <c r="W32" s="3" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="X32" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Y32" s="3" t="inlineStr"/>
-      <c r="Z32" s="3" t="inlineStr"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050253</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>reported social support BCT</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Reported information content that is about inclusion of a reported social support BCT.</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>reported intervention content</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>outcome prediction</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr"/>
+      <c r="Q32" s="2" t="inlineStr"/>
+      <c r="R32" s="2" t="inlineStr"/>
+      <c r="S32" s="2" t="inlineStr"/>
+      <c r="T32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr"/>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X32" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Y32" s="2" t="inlineStr"/>
+      <c r="Z32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050214</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr"/>
       <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="H33" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>consumption behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="inlineStr"/>
       <c r="I33" s="3" t="inlineStr">
         <is>
           <t>Behaviour</t>
@@ -2552,29 +2550,25 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco smoking behaviour pattern</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr"/>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H34" s="3" t="inlineStr">
@@ -2584,7 +2578,7 @@
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr"/>
@@ -2596,31 +2590,163 @@
       <c r="P34" s="3" t="inlineStr"/>
       <c r="Q34" s="3" t="inlineStr"/>
       <c r="R34" s="3" t="inlineStr"/>
-      <c r="S34" s="3" t="inlineStr">
+      <c r="S34" s="3" t="inlineStr"/>
+      <c r="T34" s="3" t="inlineStr"/>
+      <c r="U34" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V34" s="3" t="inlineStr"/>
+      <c r="W34" s="3" t="inlineStr">
+        <is>
+          <t>RW; JH</t>
+        </is>
+      </c>
+      <c r="X34" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Y34" s="3" t="inlineStr"/>
+      <c r="Z34" s="3" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050214</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>tobacco smoking cessation</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr"/>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr"/>
+      <c r="F35" s="3" t="inlineStr"/>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="H35" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I35" s="3" t="inlineStr">
+        <is>
+          <t>Behaviour</t>
+        </is>
+      </c>
+      <c r="J35" s="3" t="inlineStr"/>
+      <c r="K35" s="3" t="inlineStr"/>
+      <c r="L35" s="3" t="inlineStr"/>
+      <c r="M35" s="3" t="inlineStr"/>
+      <c r="N35" s="3" t="inlineStr"/>
+      <c r="O35" s="3" t="inlineStr"/>
+      <c r="P35" s="3" t="inlineStr"/>
+      <c r="Q35" s="3" t="inlineStr"/>
+      <c r="R35" s="3" t="inlineStr"/>
+      <c r="S35" s="3" t="inlineStr"/>
+      <c r="T35" s="3" t="inlineStr"/>
+      <c r="U35" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V35" s="3" t="inlineStr"/>
+      <c r="W35" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X35" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Y35" s="3" t="inlineStr"/>
+      <c r="Z35" s="3" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050208</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr"/>
+      <c r="F36" s="3" t="inlineStr"/>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>Behaviour</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr"/>
+      <c r="K36" s="3" t="inlineStr"/>
+      <c r="L36" s="3" t="inlineStr"/>
+      <c r="M36" s="3" t="inlineStr"/>
+      <c r="N36" s="3" t="inlineStr"/>
+      <c r="O36" s="3" t="inlineStr"/>
+      <c r="P36" s="3" t="inlineStr"/>
+      <c r="Q36" s="3" t="inlineStr"/>
+      <c r="R36" s="3" t="inlineStr"/>
+      <c r="S36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
 </t>
         </is>
       </c>
-      <c r="T34" s="3" t="inlineStr"/>
-      <c r="U34" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V34" s="3" t="inlineStr"/>
-      <c r="W34" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="X34" s="3" t="inlineStr">
+      <c r="T36" s="3" t="inlineStr"/>
+      <c r="U36" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V36" s="3" t="inlineStr"/>
+      <c r="W36" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X36" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y34" s="3" t="inlineStr"/>
-      <c r="Z34" s="3" t="inlineStr"/>
+      <c r="Y36" s="3" t="inlineStr"/>
+      <c r="Z36" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Entities used for prediction/BCIO_prediction_entities.xlsx
+++ b/Entities used for prediction/BCIO_prediction_entities.xlsx
@@ -1162,7 +1162,9 @@
       <c r="R11" s="2" t="inlineStr"/>
       <c r="S11" s="2" t="inlineStr"/>
       <c r="T11" s="2" t="inlineStr"/>
-      <c r="U11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V11" s="2" t="inlineStr"/>
       <c r="W11" s="2" t="inlineStr">
         <is>
@@ -1564,18 +1566,18 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050260</t>
+          <t>BCIO:050261</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>reported intervention mode of delivery</t>
+          <t>reported intervention delivery</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>A data item that describes how an intervention was delivered.</t>
+          <t>A data item that is about intervention delivery in a study or study arm.</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr"/>
@@ -1606,7 +1608,9 @@
       <c r="R18" s="2" t="inlineStr"/>
       <c r="S18" s="2" t="inlineStr"/>
       <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V18" s="2" t="inlineStr"/>
       <c r="W18" s="2" t="inlineStr">
         <is>
@@ -1962,8 +1966,10 @@
       <c r="R24" s="2" t="inlineStr"/>
       <c r="S24" s="2" t="inlineStr"/>
       <c r="T24" s="2" t="inlineStr"/>
-      <c r="U24" s="2" t="n">
-        <v>0</v>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V24" s="2" t="inlineStr"/>
       <c r="W24" s="2" t="inlineStr">

--- a/Entities used for prediction/BCIO_prediction_entities.xlsx
+++ b/Entities used for prediction/BCIO_prediction_entities.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,8 +1168,10 @@
       <c r="R11" s="2" t="inlineStr"/>
       <c r="S11" s="2" t="inlineStr"/>
       <c r="T11" s="2" t="inlineStr"/>
-      <c r="U11" s="2" t="n">
-        <v>0</v>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V11" s="2" t="inlineStr"/>
       <c r="W11" s="2" t="inlineStr">
@@ -1608,8 +1616,10 @@
       <c r="R18" s="2" t="inlineStr"/>
       <c r="S18" s="2" t="inlineStr"/>
       <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="n">
-        <v>0</v>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V18" s="2" t="inlineStr"/>
       <c r="W18" s="2" t="inlineStr">
@@ -1626,80 +1636,84 @@
       <c r="Z18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050256</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>reported offer of a nicotine inhalator</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Reported offer of a nicotine replacement product in which the product is a nicotine inhalator.</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>reported offer of a nicotine replacement product</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050262</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>reported intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr"/>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>Reported intervention delivery that is about intervention mode of delivery.</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>reported intervention delivery</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
         <is>
           <t>outcome prediction</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr"/>
-      <c r="Q19" s="2" t="inlineStr"/>
-      <c r="R19" s="2" t="inlineStr"/>
-      <c r="S19" s="2" t="inlineStr"/>
-      <c r="T19" s="2" t="inlineStr"/>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V19" s="2" t="inlineStr"/>
-      <c r="W19" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="X19" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="Y19" s="2" t="inlineStr"/>
-      <c r="Z19" s="2" t="inlineStr"/>
+      <c r="J19" s="4" t="inlineStr"/>
+      <c r="K19" s="4" t="inlineStr"/>
+      <c r="L19" s="4" t="inlineStr"/>
+      <c r="M19" s="4" t="inlineStr"/>
+      <c r="N19" s="4" t="inlineStr">
+        <is>
+          <t>intervention mode of delivery</t>
+        </is>
+      </c>
+      <c r="O19" s="4" t="inlineStr"/>
+      <c r="P19" s="4" t="inlineStr"/>
+      <c r="Q19" s="4" t="inlineStr"/>
+      <c r="R19" s="4" t="inlineStr"/>
+      <c r="S19" s="4" t="inlineStr"/>
+      <c r="T19" s="4" t="inlineStr"/>
+      <c r="U19" s="4" t="inlineStr"/>
+      <c r="V19" s="4" t="inlineStr"/>
+      <c r="W19" s="4" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X19" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y19" s="4" t="inlineStr"/>
+      <c r="Z19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050257</t>
+          <t>BCIO:050256</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine lozenge</t>
+          <t>reported offer of a nicotine inhalator</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Reported offer of a nicotine replacement product in which the product is a nicotine lozenge.</t>
+          <t>Reported offer of a nicotine replacement product in which the product is a nicotine inhalator.</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
@@ -1748,25 +1762,25 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050254</t>
+          <t>BCIO:050257</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine replacement product</t>
+          <t>reported offer of a nicotine lozenge</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Reported pharmacological support BCT where the pharmacotherapy is nicotine replacement therapy.</t>
+          <t>Reported offer of a nicotine replacement product in which the product is a nicotine lozenge.</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of a nicotine replacement product</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr"/>
@@ -1808,18 +1822,18 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050240</t>
+          <t>BCIO:050254</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>reported offer of bupropion</t>
+          <t>reported offer of a nicotine replacement product</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Reported pharmacological support BCT where the pharmacotherapy is bupropion.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is nicotine replacement therapy.</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
@@ -1868,25 +1882,25 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050255</t>
+          <t>BCIO:050240</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>reported offer of nicotine chewing gum</t>
+          <t>reported offer of bupropion</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Reported offer of a nicotine product in which the product is nicotine chewing gum.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is bupropion.</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>reported offer of a nicotine replacement product</t>
+          <t>reported pharmacological support BCT</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr"/>
@@ -1928,18 +1942,18 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050260</t>
+          <t>BCIO:050255</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>reported offer of nicotine nasal spray</t>
+          <t>reported offer of nicotine chewing gum</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Reported offer of a nicotine replacement product in which the product is nicotine nasal spray.</t>
+          <t>Reported offer of a nicotine product in which the product is nicotine chewing gum.</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>
@@ -1988,18 +2002,18 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050258</t>
+          <t>BCIO:050260</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>reported offer of nicotine transdermal patch</t>
+          <t>reported offer of nicotine nasal spray</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Reported offer of a nicotine replacement product in which the product is a nicotine transdermal patch.</t>
+          <t>Reported offer of a nicotine replacement product in which the product is nicotine nasal spray.</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
@@ -2048,25 +2062,25 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050242</t>
+          <t>BCIO:050258</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>reported offer of varenicline</t>
+          <t>reported offer of nicotine transdermal patch</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Reported pharmacological support BCT where the pharmacotherapy is varenicline.</t>
+          <t>Reported offer of a nicotine replacement product in which the product is a nicotine transdermal patch.</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of a nicotine replacement product</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr"/>
@@ -2108,32 +2122,28 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050248</t>
+          <t>BCIO:050242</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported offer of varenicline</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a pharmacological support BCT.</t>
+          <t>Reported pharmacological support BCT where the pharmacotherapy is varenicline.</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>reported intervention content</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
+          <t>reported pharmacological support BCT</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr"/>
       <c r="I27" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -2172,18 +2182,18 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050249</t>
+          <t>BCIO:050248</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>reported problem solving BCT</t>
+          <t>reported pharmacological support BCT</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a problem solving BCT.</t>
+          <t>Reported information content that is about inclusion of a pharmacological support BCT.</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
@@ -2236,18 +2246,18 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050250</t>
+          <t>BCIO:050249</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>reported reduce negative emotions BCT</t>
+          <t>reported problem solving BCT</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr"/>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a reduce negative emotions BCT.</t>
+          <t>Reported information content that is about inclusion of a problem solving BCT.</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
@@ -2300,18 +2310,18 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050251</t>
+          <t>BCIO:050250</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>reported self-monitoring of behaviour BCT</t>
+          <t>reported reduce negative emotions BCT</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a self-monitoring of behaviour BCT.</t>
+          <t>Reported information content that is about inclusion of a reduce negative emotions BCT.</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
@@ -2364,32 +2374,32 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050252</t>
+          <t>BCIO:050251</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>reported smoking cessation rate</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>Reported percentage of people in a study or group within a study that have stopped smoking according to a set of criteria.</t>
-        </is>
-      </c>
+          <t>reported self-monitoring of behaviour BCT</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr"/>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>A data item that is a report by study investigators of the percentage of participants in a study or part of a study have tobacco use cessation as part of their history according to a set of criteria.</t>
+          <t>Reported information content that is about inclusion of a self-monitoring of behaviour BCT.</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr"/>
+          <t>reported intervention content</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -2404,11 +2414,7 @@
       <c r="P31" s="2" t="inlineStr"/>
       <c r="Q31" s="2" t="inlineStr"/>
       <c r="R31" s="2" t="inlineStr"/>
-      <c r="S31" s="2" t="inlineStr">
-        <is>
-          <t>This entity is for use when synthesising evidence from tobacco cessation studies. Note that it refers to what study investigators have reported, not what actually happened. This is because it is only the report that can be verified and different studies use different ways of assessing what happened, for example using biochemical verification or not, imputing missing values in different ways, defining the participant sample in different ways, and involving different numbers of attempts at contacting participants. Therefore, interpreting this figure normally requires additional information on how it was arrived at. This entity combines point-prevalence and continuous abstinence.</t>
-        </is>
-      </c>
+      <c r="S31" s="2" t="inlineStr"/>
       <c r="T31" s="2" t="inlineStr"/>
       <c r="U31" s="2" t="inlineStr">
         <is>
@@ -2432,32 +2438,32 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050253</t>
+          <t>BCIO:050252</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>reported social support BCT</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr"/>
+          <t>reported smoking cessation rate</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Reported percentage of people in a study or group within a study that have stopped smoking according to a set of criteria.</t>
+        </is>
+      </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a reported social support BCT.</t>
+          <t>A data item that is a report by study investigators of the percentage of participants in a study or part of a study have tobacco use cessation as part of their history according to a set of criteria.</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>reported intervention content</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr">
         <is>
           <t>outcome prediction</t>
@@ -2472,7 +2478,11 @@
       <c r="P32" s="2" t="inlineStr"/>
       <c r="Q32" s="2" t="inlineStr"/>
       <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr"/>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>This entity is for use when synthesising evidence from tobacco cessation studies. Note that it refers to what study investigators have reported, not what actually happened. This is because it is only the report that can be verified and different studies use different ways of assessing what happened, for example using biochemical verification or not, imputing missing values in different ways, defining the participant sample in different ways, and involving different numbers of attempts at contacting participants. Therefore, interpreting this figure normally requires additional information on how it was arrived at. This entity combines point-prevalence and continuous abstinence.</t>
+        </is>
+      </c>
       <c r="T32" s="2" t="inlineStr"/>
       <c r="U32" s="2" t="inlineStr">
         <is>
@@ -2494,97 +2504,97 @@
       <c r="Z32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050211</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>substance use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="inlineStr"/>
-      <c r="F33" s="3" t="inlineStr"/>
-      <c r="G33" s="3" t="inlineStr">
-        <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H33" s="3" t="inlineStr"/>
-      <c r="I33" s="3" t="inlineStr">
-        <is>
-          <t>Behaviour</t>
-        </is>
-      </c>
-      <c r="J33" s="3" t="inlineStr"/>
-      <c r="K33" s="3" t="inlineStr"/>
-      <c r="L33" s="3" t="inlineStr"/>
-      <c r="M33" s="3" t="inlineStr"/>
-      <c r="N33" s="3" t="inlineStr"/>
-      <c r="O33" s="3" t="inlineStr"/>
-      <c r="P33" s="3" t="inlineStr"/>
-      <c r="Q33" s="3" t="inlineStr"/>
-      <c r="R33" s="3" t="inlineStr"/>
-      <c r="S33" s="3" t="inlineStr"/>
-      <c r="T33" s="3" t="inlineStr"/>
-      <c r="U33" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V33" s="3" t="inlineStr"/>
-      <c r="W33" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="X33" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Y33" s="3" t="inlineStr"/>
-      <c r="Z33" s="3" t="inlineStr"/>
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050253</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>reported social support BCT</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Reported information content that is about inclusion of a reported social support BCT.</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>reported intervention content</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>outcome prediction</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr"/>
+      <c r="Q33" s="2" t="inlineStr"/>
+      <c r="R33" s="2" t="inlineStr"/>
+      <c r="S33" s="2" t="inlineStr"/>
+      <c r="T33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr"/>
+      <c r="W33" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X33" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="Y33" s="2" t="inlineStr"/>
+      <c r="Z33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking behaviour pattern</t>
+          <t>substance use behaviour pattern</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr"/>
       <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
-      <c r="H34" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>consumption behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="inlineStr"/>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr"/>
@@ -2606,7 +2616,7 @@
       <c r="V34" s="3" t="inlineStr"/>
       <c r="W34" s="3" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="X34" s="3" t="inlineStr">
@@ -2620,25 +2630,25 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050214</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>tobacco smoking behaviour pattern</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr"/>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>tobacco use behaviour pattern</t>
         </is>
       </c>
       <c r="H35" s="3" t="inlineStr">
@@ -2648,7 +2658,7 @@
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr"/>
@@ -2670,7 +2680,7 @@
       <c r="V35" s="3" t="inlineStr"/>
       <c r="W35" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="X35" s="3" t="inlineStr">
@@ -2684,29 +2694,25 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:050214</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
+          <t>tobacco smoking cessation</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr"/>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr"/>
       <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern cessation</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="H36" s="3" t="inlineStr">
@@ -2728,31 +2734,99 @@
       <c r="P36" s="3" t="inlineStr"/>
       <c r="Q36" s="3" t="inlineStr"/>
       <c r="R36" s="3" t="inlineStr"/>
-      <c r="S36" s="3" t="inlineStr">
+      <c r="S36" s="3" t="inlineStr"/>
+      <c r="T36" s="3" t="inlineStr"/>
+      <c r="U36" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V36" s="3" t="inlineStr"/>
+      <c r="W36" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X36" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="Y36" s="3" t="inlineStr"/>
+      <c r="Z36" s="3" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050208</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern involved is tobacco use.</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr"/>
+      <c r="F37" s="3" t="inlineStr"/>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I37" s="3" t="inlineStr">
+        <is>
+          <t>Behaviour</t>
+        </is>
+      </c>
+      <c r="J37" s="3" t="inlineStr"/>
+      <c r="K37" s="3" t="inlineStr"/>
+      <c r="L37" s="3" t="inlineStr"/>
+      <c r="M37" s="3" t="inlineStr"/>
+      <c r="N37" s="3" t="inlineStr"/>
+      <c r="O37" s="3" t="inlineStr"/>
+      <c r="P37" s="3" t="inlineStr"/>
+      <c r="Q37" s="3" t="inlineStr"/>
+      <c r="R37" s="3" t="inlineStr"/>
+      <c r="S37" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
 </t>
         </is>
       </c>
-      <c r="T36" s="3" t="inlineStr"/>
-      <c r="U36" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V36" s="3" t="inlineStr"/>
-      <c r="W36" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="X36" s="3" t="inlineStr">
+      <c r="T37" s="3" t="inlineStr"/>
+      <c r="U37" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V37" s="3" t="inlineStr"/>
+      <c r="W37" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X37" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Y36" s="3" t="inlineStr"/>
-      <c r="Z36" s="3" t="inlineStr"/>
+      <c r="Y37" s="3" t="inlineStr"/>
+      <c r="Z37" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Entities used for prediction/BCIO_prediction_entities.xlsx
+++ b/Entities used for prediction/BCIO_prediction_entities.xlsx
@@ -1126,7 +1126,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050259</t>
+          <t>BCIO:050263</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       <c r="C11" s="2" t="inlineStr"/>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>A reported intervention mode of delivery in which the mode is face-to-face mode of delivery</t>
+          <t>A reported intervention mode of delivery that is about face-to-face mode of delivery</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr"/>
@@ -1684,7 +1684,9 @@
       <c r="R19" s="4" t="inlineStr"/>
       <c r="S19" s="4" t="inlineStr"/>
       <c r="T19" s="4" t="inlineStr"/>
-      <c r="U19" s="4" t="inlineStr"/>
+      <c r="U19" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="V19" s="4" t="inlineStr"/>
       <c r="W19" s="4" t="inlineStr">
         <is>

--- a/Entities used for prediction/BCIO_prediction_entities.xlsx
+++ b/Entities used for prediction/BCIO_prediction_entities.xlsx
@@ -1684,8 +1684,10 @@
       <c r="R19" s="4" t="inlineStr"/>
       <c r="S19" s="4" t="inlineStr"/>
       <c r="T19" s="4" t="inlineStr"/>
-      <c r="U19" s="4" t="n">
-        <v>0</v>
+      <c r="U19" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V19" s="4" t="inlineStr"/>
       <c r="W19" s="4" t="inlineStr">
@@ -1884,7 +1886,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050240</t>
+          <t>BCIO:050264</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">

--- a/Entities used for prediction/BCIO_prediction_entities.xlsx
+++ b/Entities used for prediction/BCIO_prediction_entities.xlsx
@@ -2126,7 +2126,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050242</t>
+          <t>BCIO:050265</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">

--- a/Entities used for prediction/BCIO_prediction_entities.xlsx
+++ b/Entities used for prediction/BCIO_prediction_entities.xlsx
@@ -2186,18 +2186,18 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050248</t>
+          <t>BCIO:050249</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>reported pharmacological support BCT</t>
+          <t>reported problem solving BCT</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a pharmacological support BCT.</t>
+          <t>Reported information content that is about inclusion of a problem solving BCT.</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
@@ -2250,18 +2250,18 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050249</t>
+          <t>BCIO:050248</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>reported problem solving BCT</t>
+          <t>reported promote pharmacological support BCT</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr"/>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Reported information content that is about inclusion of a problem solving BCT.</t>
+          <t>Reported intervention content that is about inclusion of a promote pharmacological support BCT.</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
